--- a/PD881/data/PD881_Column_Definition_20201014.xlsx
+++ b/PD881/data/PD881_Column_Definition_20201014.xlsx
@@ -15,14 +15,14 @@
     <sheet name="变量名" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">变量名!$A$1:$E$816</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">变量名!$A$1:$K$815</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="2298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="2301">
   <si>
     <t>PID</t>
   </si>
@@ -7026,7 +7026,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定序，5分级数据，但有1.5、2.5小数，转为10分类</t>
+    <t>空值处理策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空值参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空值参数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7873,10 +7885,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H816"/>
+  <dimension ref="A1:K816"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7885,13 +7897,13 @@
     <col min="2" max="2" width="31.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="26.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="6" width="15.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="5" max="9" width="15.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>1397</v>
       </c>
@@ -7911,13 +7923,22 @@
         <v>2294</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>2297</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>2298</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>2299</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>2256</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>2261</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7936,11 +7957,11 @@
       <c r="F2" s="1" t="s">
         <v>2259</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>2259</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7959,11 +7980,11 @@
       <c r="F3" s="1" t="s">
         <v>2293</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>2293</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -7980,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>1395</v>
       </c>
@@ -7997,7 +8018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -8016,11 +8037,11 @@
       <c r="F6" s="1" t="s">
         <v>2260</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>2260</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -8037,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -8054,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -8073,11 +8094,11 @@
       <c r="F9" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -8094,7 +8115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -8113,11 +8134,11 @@
       <c r="F11" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -8136,11 +8157,11 @@
       <c r="F12" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -8159,14 +8180,14 @@
       <c r="F13" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>2289</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -8183,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -8200,7 +8221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -8217,7 +8238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -8234,7 +8255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -8251,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -8268,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -8285,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -8302,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -8319,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -8338,11 +8359,11 @@
       <c r="F23" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>2290</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
@@ -8359,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
@@ -8376,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
@@ -8395,11 +8416,11 @@
       <c r="F26" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
@@ -8416,7 +8437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
@@ -8433,7 +8454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
@@ -8452,11 +8473,11 @@
       <c r="F29" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
@@ -8475,11 +8496,11 @@
       <c r="F30" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
@@ -8498,11 +8519,11 @@
       <c r="F31" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>54</v>
       </c>
@@ -8521,11 +8542,11 @@
       <c r="F32" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>56</v>
       </c>
@@ -8544,11 +8565,11 @@
       <c r="F33" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>58</v>
       </c>
@@ -8567,11 +8588,11 @@
       <c r="F34" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
@@ -8590,11 +8611,11 @@
       <c r="F35" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>62</v>
       </c>
@@ -8610,11 +8631,11 @@
       <c r="E36" s="5">
         <v>0</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>2288</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>64</v>
       </c>
@@ -8633,14 +8654,14 @@
       <c r="F37" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>2264</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -8657,7 +8678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>67</v>
       </c>
@@ -8674,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>69</v>
       </c>
@@ -8691,7 +8712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>71</v>
       </c>
@@ -8708,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>73</v>
       </c>
@@ -8725,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>75</v>
       </c>
@@ -8742,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>77</v>
       </c>
@@ -8759,7 +8780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>79</v>
       </c>
@@ -8776,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>81</v>
       </c>
@@ -8795,14 +8816,14 @@
       <c r="F46" s="1" t="s">
         <v>2295</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="J46" s="10" t="s">
         <v>2262</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>2263</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>82</v>
       </c>
@@ -8818,11 +8839,11 @@
       <c r="E47" s="5">
         <v>0</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>2281</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>84</v>
       </c>
@@ -8838,11 +8859,11 @@
       <c r="E48" s="5">
         <v>0</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>2281</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>86</v>
       </c>
@@ -8859,7 +8880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>87</v>
       </c>
@@ -8876,7 +8897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>89</v>
       </c>
@@ -8893,7 +8914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>91</v>
       </c>
@@ -8910,7 +8931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>93</v>
       </c>
@@ -8927,7 +8948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -8944,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>97</v>
       </c>
@@ -8961,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>99</v>
       </c>
@@ -8978,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>100</v>
       </c>
@@ -8995,7 +9016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>102</v>
       </c>
@@ -9012,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>103</v>
       </c>
@@ -9029,7 +9050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>104</v>
       </c>
@@ -9046,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>106</v>
       </c>
@@ -9065,11 +9086,11 @@
       <c r="F61" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>107</v>
       </c>
@@ -9088,11 +9109,11 @@
       <c r="F62" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>109</v>
       </c>
@@ -9109,7 +9130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -9398,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>18</v>
       </c>
@@ -9415,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>19</v>
       </c>
@@ -9432,7 +9453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>20</v>
       </c>
@@ -9449,7 +9470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>21</v>
       </c>
@@ -9466,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>22</v>
       </c>
@@ -9483,7 +9504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>23</v>
       </c>
@@ -9500,7 +9521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>24</v>
       </c>
@@ -9517,7 +9538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>25</v>
       </c>
@@ -9534,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>26</v>
       </c>
@@ -9551,7 +9572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>27</v>
       </c>
@@ -9568,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>111</v>
       </c>
@@ -9587,11 +9608,11 @@
       <c r="F91" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="G91" s="10" t="s">
-        <v>2297</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="J91" s="3" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>113</v>
       </c>
@@ -9608,7 +9629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>114</v>
       </c>
@@ -9625,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>116</v>
       </c>
@@ -9642,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>118</v>
       </c>
@@ -9659,7 +9680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>120</v>
       </c>
@@ -10220,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>186</v>
       </c>
@@ -10237,7 +10258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>188</v>
       </c>
@@ -10254,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
         <v>190</v>
       </c>
@@ -10271,7 +10292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
         <v>192</v>
       </c>
@@ -10288,7 +10309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
         <v>194</v>
       </c>
@@ -10305,7 +10326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
         <v>196</v>
       </c>
@@ -10322,7 +10343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
         <v>198</v>
       </c>
@@ -10339,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
         <v>199</v>
       </c>
@@ -10356,7 +10377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>201</v>
       </c>
@@ -10373,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>203</v>
       </c>
@@ -10390,7 +10411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>204</v>
       </c>
@@ -10407,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
         <v>206</v>
       </c>
@@ -10426,11 +10447,11 @@
       <c r="F140" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="J140" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>208</v>
       </c>
@@ -10447,7 +10468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
         <v>210</v>
       </c>
@@ -10466,11 +10487,11 @@
       <c r="F142" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="J142" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>212</v>
       </c>
@@ -10487,7 +10508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
         <v>214</v>
       </c>
@@ -10504,7 +10525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
         <v>216</v>
       </c>
@@ -10523,11 +10544,11 @@
       <c r="F145" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="J145" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
         <v>218</v>
       </c>
@@ -10544,7 +10565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>220</v>
       </c>
@@ -10563,11 +10584,11 @@
       <c r="F147" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="J147" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>222</v>
       </c>
@@ -10584,7 +10605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
         <v>224</v>
       </c>
@@ -10603,11 +10624,11 @@
       <c r="F149" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="J149" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
         <v>226</v>
       </c>
@@ -10624,7 +10645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
         <v>228</v>
       </c>
@@ -10641,7 +10662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
         <v>230</v>
       </c>
@@ -10658,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
         <v>232</v>
       </c>
@@ -10675,7 +10696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
         <v>234</v>
       </c>
@@ -10692,7 +10713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
         <v>236</v>
       </c>
@@ -10711,11 +10732,11 @@
       <c r="F155" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="J155" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
         <v>238</v>
       </c>
@@ -10732,7 +10753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
         <v>240</v>
       </c>
@@ -10751,11 +10772,11 @@
       <c r="F157" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="J157" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
         <v>242</v>
       </c>
@@ -10772,7 +10793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
         <v>244</v>
       </c>
@@ -10789,7 +10810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
         <v>245</v>
       </c>
@@ -10808,14 +10829,14 @@
       <c r="F160" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="J160" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="H160" s="1" t="s">
+      <c r="K160" s="1" t="s">
         <v>2267</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
         <v>247</v>
       </c>
@@ -10834,11 +10855,11 @@
       <c r="F161" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="J161" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
         <v>248</v>
       </c>
@@ -10855,7 +10876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
         <v>250</v>
       </c>
@@ -10872,7 +10893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
         <v>252</v>
       </c>
@@ -10891,11 +10912,11 @@
       <c r="F164" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="J164" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
         <v>254</v>
       </c>
@@ -10912,7 +10933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
         <v>256</v>
       </c>
@@ -10929,7 +10950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
         <v>257</v>
       </c>
@@ -10948,11 +10969,11 @@
       <c r="F167" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="J167" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
         <v>258</v>
       </c>
@@ -10969,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
         <v>260</v>
       </c>
@@ -10986,7 +11007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
         <v>261</v>
       </c>
@@ -11005,11 +11026,11 @@
       <c r="F170" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="J170" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
         <v>263</v>
       </c>
@@ -11026,7 +11047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
         <v>265</v>
       </c>
@@ -11043,7 +11064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
         <v>266</v>
       </c>
@@ -11062,11 +11083,11 @@
       <c r="F173" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="J173" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
         <v>268</v>
       </c>
@@ -11083,7 +11104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
         <v>270</v>
       </c>
@@ -11100,7 +11121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
         <v>271</v>
       </c>
@@ -11119,11 +11140,11 @@
       <c r="F176" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G176" s="1" t="s">
+      <c r="J176" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
         <v>273</v>
       </c>
@@ -11140,7 +11161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
         <v>275</v>
       </c>
@@ -11157,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
         <v>276</v>
       </c>
@@ -11176,11 +11197,11 @@
       <c r="F179" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="J179" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
         <v>278</v>
       </c>
@@ -11197,7 +11218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
         <v>280</v>
       </c>
@@ -11214,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
         <v>1419</v>
       </c>
@@ -11233,11 +11254,11 @@
       <c r="F182" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="J182" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
         <v>282</v>
       </c>
@@ -11254,7 +11275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
         <v>284</v>
       </c>
@@ -11271,7 +11292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
         <v>285</v>
       </c>
@@ -11290,11 +11311,11 @@
       <c r="F185" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="J185" s="1" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
         <v>287</v>
       </c>
@@ -11313,11 +11334,11 @@
       <c r="F186" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="J186" s="1" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
         <v>289</v>
       </c>
@@ -11336,11 +11357,11 @@
       <c r="F187" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G187" s="1" t="s">
+      <c r="J187" s="1" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
         <v>291</v>
       </c>
@@ -11359,11 +11380,11 @@
       <c r="F188" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G188" s="1" t="s">
+      <c r="J188" s="1" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
         <v>293</v>
       </c>
@@ -11382,11 +11403,11 @@
       <c r="F189" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="J189" s="1" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
         <v>295</v>
       </c>
@@ -11405,11 +11426,11 @@
       <c r="F190" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G190" s="1" t="s">
+      <c r="J190" s="1" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
         <v>297</v>
       </c>
@@ -11428,11 +11449,11 @@
       <c r="F191" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G191" s="1" t="s">
+      <c r="J191" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
         <v>299</v>
       </c>
@@ -11451,11 +11472,11 @@
       <c r="F192" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G192" s="1" t="s">
+      <c r="J192" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193" s="2" t="s">
         <v>301</v>
       </c>
@@ -11474,11 +11495,11 @@
       <c r="F193" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G193" s="1" t="s">
+      <c r="J193" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
         <v>303</v>
       </c>
@@ -11497,11 +11518,11 @@
       <c r="F194" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G194" s="1" t="s">
+      <c r="J194" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
         <v>305</v>
       </c>
@@ -11517,11 +11538,11 @@
       <c r="E195" s="5">
         <v>0</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="J195" s="1" t="s">
         <v>2265</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
         <v>307</v>
       </c>
@@ -11538,7 +11559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
         <v>308</v>
       </c>
@@ -11557,11 +11578,11 @@
       <c r="F197" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="J197" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
         <v>310</v>
       </c>
@@ -11578,7 +11599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
         <v>312</v>
       </c>
@@ -11595,7 +11616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
         <v>313</v>
       </c>
@@ -11614,11 +11635,11 @@
       <c r="F200" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="J200" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
         <v>315</v>
       </c>
@@ -11635,7 +11656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
         <v>316</v>
       </c>
@@ -11652,7 +11673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
         <v>317</v>
       </c>
@@ -11671,11 +11692,11 @@
       <c r="F203" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="J203" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
         <v>318</v>
       </c>
@@ -11691,11 +11712,11 @@
       <c r="E204" s="5">
         <v>0</v>
       </c>
-      <c r="G204" s="1" t="s">
+      <c r="J204" s="1" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
         <v>320</v>
       </c>
@@ -11714,11 +11735,11 @@
       <c r="F205" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G205" s="1" t="s">
+      <c r="J205" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
         <v>322</v>
       </c>
@@ -11735,7 +11756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
         <v>324</v>
       </c>
@@ -11752,7 +11773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
         <v>325</v>
       </c>
@@ -11771,11 +11792,11 @@
       <c r="F208" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G208" s="1" t="s">
+      <c r="J208" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
         <v>327</v>
       </c>
@@ -11792,7 +11813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
         <v>329</v>
       </c>
@@ -11809,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
         <v>330</v>
       </c>
@@ -11828,11 +11849,11 @@
       <c r="F211" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G211" s="1" t="s">
+      <c r="J211" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
         <v>332</v>
       </c>
@@ -11849,7 +11870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
         <v>334</v>
       </c>
@@ -11866,7 +11887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>335</v>
       </c>
@@ -11883,7 +11904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
         <v>337</v>
       </c>
@@ -11900,7 +11921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
         <v>339</v>
       </c>
@@ -11919,11 +11940,11 @@
       <c r="F216" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="G216" s="1" t="s">
+      <c r="J216" s="1" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" s="2" t="s">
         <v>340</v>
       </c>
@@ -11940,7 +11961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
         <v>342</v>
       </c>
@@ -11957,7 +11978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
         <v>344</v>
       </c>
@@ -11976,14 +11997,14 @@
       <c r="F219" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G219" s="1" t="s">
+      <c r="J219" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="H219" s="1" t="s">
+      <c r="K219" s="1" t="s">
         <v>2268</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
         <v>346</v>
       </c>
@@ -12000,7 +12021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A221" s="2" t="s">
         <v>348</v>
       </c>
@@ -12017,7 +12038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
         <v>349</v>
       </c>
@@ -12034,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223" s="2" t="s">
         <v>351</v>
       </c>
@@ -12050,11 +12071,11 @@
       <c r="E223" s="5">
         <v>0</v>
       </c>
-      <c r="G223" s="1" t="s">
+      <c r="J223" s="1" t="s">
         <v>2281</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A224" s="2" t="s">
         <v>353</v>
       </c>
@@ -12070,11 +12091,11 @@
       <c r="E224" s="5">
         <v>0</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="J224" s="1" t="s">
         <v>2281</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
         <v>355</v>
       </c>
@@ -12090,11 +12111,11 @@
       <c r="E225" s="5">
         <v>0</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="J225" s="1" t="s">
         <v>2281</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
         <v>357</v>
       </c>
@@ -12110,11 +12131,11 @@
       <c r="E226" s="5">
         <v>0</v>
       </c>
-      <c r="G226" s="1" t="s">
+      <c r="J226" s="1" t="s">
         <v>2281</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
         <v>359</v>
       </c>
@@ -12130,11 +12151,11 @@
       <c r="E227" s="5">
         <v>0</v>
       </c>
-      <c r="G227" s="1" t="s">
+      <c r="J227" s="1" t="s">
         <v>2281</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
         <v>361</v>
       </c>
@@ -12150,11 +12171,11 @@
       <c r="E228" s="5">
         <v>0</v>
       </c>
-      <c r="G228" s="1" t="s">
+      <c r="J228" s="1" t="s">
         <v>2281</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229" s="2" t="s">
         <v>363</v>
       </c>
@@ -12170,11 +12191,11 @@
       <c r="E229" s="5">
         <v>0</v>
       </c>
-      <c r="G229" s="1" t="s">
+      <c r="J229" s="1" t="s">
         <v>2281</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
         <v>365</v>
       </c>
@@ -12190,11 +12211,11 @@
       <c r="E230" s="5">
         <v>0</v>
       </c>
-      <c r="G230" s="1" t="s">
+      <c r="J230" s="1" t="s">
         <v>2281</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
         <v>367</v>
       </c>
@@ -12210,11 +12231,11 @@
       <c r="E231" s="5">
         <v>0</v>
       </c>
-      <c r="G231" s="1" t="s">
+      <c r="J231" s="1" t="s">
         <v>2281</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
         <v>368</v>
       </c>
@@ -12230,11 +12251,11 @@
       <c r="E232" s="5">
         <v>0</v>
       </c>
-      <c r="G232" s="1" t="s">
+      <c r="J232" s="1" t="s">
         <v>2281</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
         <v>370</v>
       </c>
@@ -12250,11 +12271,11 @@
       <c r="E233" s="5">
         <v>0</v>
       </c>
-      <c r="G233" s="1" t="s">
+      <c r="J233" s="1" t="s">
         <v>2281</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234" s="2" t="s">
         <v>372</v>
       </c>
@@ -12270,11 +12291,11 @@
       <c r="E234" s="5">
         <v>0</v>
       </c>
-      <c r="G234" s="1" t="s">
+      <c r="J234" s="1" t="s">
         <v>2281</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
         <v>374</v>
       </c>
@@ -12291,7 +12312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
         <v>375</v>
       </c>
@@ -12308,7 +12329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
         <v>377</v>
       </c>
@@ -12325,7 +12346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238" s="2" t="s">
         <v>379</v>
       </c>
@@ -12342,7 +12363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239" s="2" t="s">
         <v>381</v>
       </c>
@@ -12359,7 +12380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A240" s="2" t="s">
         <v>383</v>
       </c>
@@ -12376,7 +12397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241" s="2" t="s">
         <v>385</v>
       </c>
@@ -12393,7 +12414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A242" s="2" t="s">
         <v>387</v>
       </c>
@@ -12410,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A243" s="2" t="s">
         <v>388</v>
       </c>
@@ -12429,11 +12450,11 @@
       <c r="F243" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="G243" s="1" t="s">
+      <c r="J243" s="1" t="s">
         <v>2282</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
         <v>390</v>
       </c>
@@ -12450,7 +12471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
         <v>392</v>
       </c>
@@ -12467,7 +12488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A246" s="2" t="s">
         <v>394</v>
       </c>
@@ -12484,7 +12505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
         <v>396</v>
       </c>
@@ -12501,7 +12522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A248" s="2" t="s">
         <v>398</v>
       </c>
@@ -12518,7 +12539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249" s="2" t="s">
         <v>400</v>
       </c>
@@ -12535,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250" s="2" t="s">
         <v>402</v>
       </c>
@@ -12552,7 +12573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A251" s="2" t="s">
         <v>404</v>
       </c>
@@ -12569,7 +12590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252" s="2" t="s">
         <v>406</v>
       </c>
@@ -12586,7 +12607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
         <v>408</v>
       </c>
@@ -12603,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254" s="2" t="s">
         <v>410</v>
       </c>
@@ -12620,7 +12641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
         <v>412</v>
       </c>
@@ -12637,7 +12658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256" s="2" t="s">
         <v>414</v>
       </c>
@@ -12654,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A257" s="2" t="s">
         <v>416</v>
       </c>
@@ -12671,7 +12692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
         <v>418</v>
       </c>
@@ -12688,7 +12709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259" s="2" t="s">
         <v>420</v>
       </c>
@@ -12705,7 +12726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260" s="2" t="s">
         <v>422</v>
       </c>
@@ -12722,7 +12743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261" s="2" t="s">
         <v>424</v>
       </c>
@@ -12739,7 +12760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262" s="2" t="s">
         <v>426</v>
       </c>
@@ -12756,7 +12777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A263" s="2" t="s">
         <v>428</v>
       </c>
@@ -12773,7 +12794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
         <v>430</v>
       </c>
@@ -12790,7 +12811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265" s="2" t="s">
         <v>432</v>
       </c>
@@ -12807,7 +12828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266" s="2" t="s">
         <v>434</v>
       </c>
@@ -12824,7 +12845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A267" s="2" t="s">
         <v>435</v>
       </c>
@@ -12841,7 +12862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A268" s="2" t="s">
         <v>437</v>
       </c>
@@ -12860,11 +12881,11 @@
       <c r="F268" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="G268" s="1" t="s">
+      <c r="J268" s="1" t="s">
         <v>2282</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A269" s="2" t="s">
         <v>2245</v>
       </c>
@@ -12881,7 +12902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A270" s="2" t="s">
         <v>440</v>
       </c>
@@ -12900,11 +12921,11 @@
       <c r="F270" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="G270" s="1" t="s">
+      <c r="J270" s="1" t="s">
         <v>2284</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A271" s="2" t="s">
         <v>442</v>
       </c>
@@ -12921,7 +12942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A272" s="2" t="s">
         <v>444</v>
       </c>
@@ -12938,7 +12959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A273" s="2" t="s">
         <v>446</v>
       </c>
@@ -12955,7 +12976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A274" s="2" t="s">
         <v>448</v>
       </c>
@@ -12972,7 +12993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275" s="2" t="s">
         <v>450</v>
       </c>
@@ -12989,7 +13010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A276" s="2" t="s">
         <v>452</v>
       </c>
@@ -13006,7 +13027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277" s="2" t="s">
         <v>454</v>
       </c>
@@ -13023,7 +13044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A278" s="2" t="s">
         <v>456</v>
       </c>
@@ -13040,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A279" s="2" t="s">
         <v>458</v>
       </c>
@@ -13057,7 +13078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A280" s="2" t="s">
         <v>460</v>
       </c>
@@ -13074,7 +13095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A281" s="2" t="s">
         <v>462</v>
       </c>
@@ -13091,7 +13112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282" s="2" t="s">
         <v>464</v>
       </c>
@@ -13108,7 +13129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A283" s="2" t="s">
         <v>466</v>
       </c>
@@ -13125,7 +13146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A284" s="2" t="s">
         <v>468</v>
       </c>
@@ -13144,11 +13165,11 @@
       <c r="F284" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="G284" s="1" t="s">
+      <c r="J284" s="1" t="s">
         <v>2285</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285" s="2" t="s">
         <v>470</v>
       </c>
@@ -13165,7 +13186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A286" s="2" t="s">
         <v>472</v>
       </c>
@@ -13184,11 +13205,11 @@
       <c r="F286" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G286" s="1" t="s">
+      <c r="J286" s="1" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A287" s="2" t="s">
         <v>474</v>
       </c>
@@ -13207,11 +13228,11 @@
       <c r="F287" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G287" s="1" t="s">
+      <c r="J287" s="1" t="s">
         <v>2283</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A288" s="2" t="s">
         <v>476</v>
       </c>
@@ -13228,7 +13249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A289" s="2" t="s">
         <v>478</v>
       </c>
@@ -13247,11 +13268,11 @@
       <c r="F289" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G289" s="1" t="s">
+      <c r="J289" s="1" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A290" s="2" t="s">
         <v>480</v>
       </c>
@@ -13270,11 +13291,11 @@
       <c r="F290" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G290" s="1" t="s">
+      <c r="J290" s="1" t="s">
         <v>2283</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A291" s="2" t="s">
         <v>482</v>
       </c>
@@ -13291,7 +13312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A292" s="2" t="s">
         <v>484</v>
       </c>
@@ -13310,11 +13331,11 @@
       <c r="F292" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G292" s="1" t="s">
+      <c r="J292" s="1" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A293" s="2" t="s">
         <v>486</v>
       </c>
@@ -13333,11 +13354,11 @@
       <c r="F293" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G293" s="1" t="s">
+      <c r="J293" s="1" t="s">
         <v>2283</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294" s="2" t="s">
         <v>488</v>
       </c>
@@ -13354,7 +13375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295" s="2" t="s">
         <v>490</v>
       </c>
@@ -13371,7 +13392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A296" s="2" t="s">
         <v>492</v>
       </c>
@@ -13388,7 +13409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297" s="2" t="s">
         <v>494</v>
       </c>
@@ -13405,7 +13426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298" s="2" t="s">
         <v>496</v>
       </c>
@@ -13422,7 +13443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A299" s="2" t="s">
         <v>498</v>
       </c>
@@ -13439,7 +13460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A300" s="2" t="s">
         <v>500</v>
       </c>
@@ -13456,7 +13477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301" s="2" t="s">
         <v>502</v>
       </c>
@@ -13473,7 +13494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A302" s="2" t="s">
         <v>504</v>
       </c>
@@ -13490,7 +13511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A303" s="2" t="s">
         <v>506</v>
       </c>
@@ -13507,7 +13528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304" s="2" t="s">
         <v>508</v>
       </c>
@@ -13796,7 +13817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A321" s="2" t="s">
         <v>542</v>
       </c>
@@ -13813,7 +13834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A322" s="2" t="s">
         <v>544</v>
       </c>
@@ -13830,7 +13851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A323" s="2" t="s">
         <v>546</v>
       </c>
@@ -13847,7 +13868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A324" s="2" t="s">
         <v>548</v>
       </c>
@@ -13866,11 +13887,11 @@
       <c r="F324" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="G324" s="1" t="s">
+      <c r="J324" s="1" t="s">
         <v>2269</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A325" s="2" t="s">
         <v>550</v>
       </c>
@@ -13889,11 +13910,11 @@
       <c r="F325" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="G325" s="1" t="s">
+      <c r="J325" s="1" t="s">
         <v>2270</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A326" s="2" t="s">
         <v>2240</v>
       </c>
@@ -13912,11 +13933,11 @@
       <c r="F326" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G326" s="1" t="s">
+      <c r="J326" s="1" t="s">
         <v>2271</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A327" s="2" t="s">
         <v>2241</v>
       </c>
@@ -13935,11 +13956,11 @@
       <c r="F327" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G327" s="1" t="s">
+      <c r="J327" s="1" t="s">
         <v>2271</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A328" s="2" t="s">
         <v>2242</v>
       </c>
@@ -13958,11 +13979,11 @@
       <c r="F328" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G328" s="1" t="s">
+      <c r="J328" s="1" t="s">
         <v>2271</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A329" s="2" t="s">
         <v>2243</v>
       </c>
@@ -13981,11 +14002,11 @@
       <c r="F329" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G329" s="1" t="s">
+      <c r="J329" s="1" t="s">
         <v>2271</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A330" s="2" t="s">
         <v>555</v>
       </c>
@@ -14004,11 +14025,11 @@
       <c r="F330" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G330" s="1" t="s">
+      <c r="J330" s="1" t="s">
         <v>2272</v>
       </c>
     </row>
-    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A331" s="2" t="s">
         <v>557</v>
       </c>
@@ -14025,7 +14046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A332" s="2" t="s">
         <v>559</v>
       </c>
@@ -14042,7 +14063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A333" s="2" t="s">
         <v>561</v>
       </c>
@@ -14061,11 +14082,11 @@
       <c r="F333" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G333" s="1" t="s">
+      <c r="J333" s="1" t="s">
         <v>2272</v>
       </c>
     </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A334" s="2" t="s">
         <v>563</v>
       </c>
@@ -14082,7 +14103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A335" s="2" t="s">
         <v>565</v>
       </c>
@@ -14099,7 +14120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A336" s="2" t="s">
         <v>567</v>
       </c>
@@ -14118,11 +14139,11 @@
       <c r="F336" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G336" s="1" t="s">
+      <c r="J336" s="1" t="s">
         <v>2272</v>
       </c>
     </row>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A337" s="2" t="s">
         <v>569</v>
       </c>
@@ -14139,7 +14160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A338" s="2" t="s">
         <v>571</v>
       </c>
@@ -14156,7 +14177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A339" s="2" t="s">
         <v>573</v>
       </c>
@@ -14175,11 +14196,11 @@
       <c r="F339" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G339" s="1" t="s">
+      <c r="J339" s="1" t="s">
         <v>2272</v>
       </c>
     </row>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A340" s="2" t="s">
         <v>575</v>
       </c>
@@ -14196,7 +14217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A341" s="2" t="s">
         <v>577</v>
       </c>
@@ -14213,7 +14234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A342" s="2" t="s">
         <v>579</v>
       </c>
@@ -14232,11 +14253,11 @@
       <c r="F342" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G342" s="1" t="s">
+      <c r="J342" s="1" t="s">
         <v>2272</v>
       </c>
     </row>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A343" s="2" t="s">
         <v>581</v>
       </c>
@@ -14253,7 +14274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A344" s="2" t="s">
         <v>583</v>
       </c>
@@ -14270,7 +14291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A345" s="2" t="s">
         <v>585</v>
       </c>
@@ -14289,11 +14310,11 @@
       <c r="F345" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G345" s="1" t="s">
+      <c r="J345" s="1" t="s">
         <v>2272</v>
       </c>
     </row>
-    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A346" s="2" t="s">
         <v>587</v>
       </c>
@@ -14310,7 +14331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A347" s="2" t="s">
         <v>589</v>
       </c>
@@ -14327,7 +14348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A348" s="2" t="s">
         <v>591</v>
       </c>
@@ -14344,7 +14365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A349" s="2" t="s">
         <v>593</v>
       </c>
@@ -14363,11 +14384,11 @@
       <c r="F349" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G349" s="1" t="s">
+      <c r="J349" s="1" t="s">
         <v>2272</v>
       </c>
     </row>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A350" s="2" t="s">
         <v>595</v>
       </c>
@@ -14384,7 +14405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A351" s="2" t="s">
         <v>597</v>
       </c>
@@ -14401,7 +14422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A352" s="2" t="s">
         <v>599</v>
       </c>
@@ -14418,7 +14439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A353" s="2" t="s">
         <v>601</v>
       </c>
@@ -14435,7 +14456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A354" s="2" t="s">
         <v>603</v>
       </c>
@@ -14452,7 +14473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A355" s="2" t="s">
         <v>605</v>
       </c>
@@ -14469,7 +14490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A356" s="2" t="s">
         <v>607</v>
       </c>
@@ -14486,7 +14507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A357" s="2" t="s">
         <v>609</v>
       </c>
@@ -14503,7 +14524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A358" s="2" t="s">
         <v>611</v>
       </c>
@@ -14520,7 +14541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A359" s="2" t="s">
         <v>613</v>
       </c>
@@ -14539,11 +14560,11 @@
       <c r="F359" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G359" s="1" t="s">
+      <c r="J359" s="1" t="s">
         <v>2273</v>
       </c>
     </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A360" s="2" t="s">
         <v>615</v>
       </c>
@@ -14560,7 +14581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A361" s="2" t="s">
         <v>617</v>
       </c>
@@ -14577,7 +14598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A362" s="2" t="s">
         <v>619</v>
       </c>
@@ -14594,7 +14615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A363" s="2" t="s">
         <v>621</v>
       </c>
@@ -14611,7 +14632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A364" s="2" t="s">
         <v>623</v>
       </c>
@@ -14628,7 +14649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A365" s="2" t="s">
         <v>625</v>
       </c>
@@ -14645,7 +14666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A366" s="2" t="s">
         <v>627</v>
       </c>
@@ -14662,7 +14683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A367" s="2" t="s">
         <v>629</v>
       </c>
@@ -14679,7 +14700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A368" s="2" t="s">
         <v>631</v>
       </c>
@@ -14696,7 +14717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A369" s="2" t="s">
         <v>633</v>
       </c>
@@ -14715,11 +14736,11 @@
       <c r="F369" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G369" s="1" t="s">
+      <c r="J369" s="1" t="s">
         <v>2273</v>
       </c>
     </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A370" s="2" t="s">
         <v>635</v>
       </c>
@@ -14736,7 +14757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A371" s="2" t="s">
         <v>637</v>
       </c>
@@ -14753,7 +14774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A372" s="2" t="s">
         <v>638</v>
       </c>
@@ -14772,11 +14793,11 @@
       <c r="F372" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G372" s="1" t="s">
+      <c r="J372" s="1" t="s">
         <v>2274</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A373" s="2" t="s">
         <v>639</v>
       </c>
@@ -14795,11 +14816,11 @@
       <c r="F373" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G373" s="1" t="s">
+      <c r="J373" s="1" t="s">
         <v>2274</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A374" s="2" t="s">
         <v>641</v>
       </c>
@@ -14818,11 +14839,11 @@
       <c r="F374" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G374" s="1" t="s">
+      <c r="J374" s="1" t="s">
         <v>2274</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A375" s="2" t="s">
         <v>643</v>
       </c>
@@ -14841,11 +14862,11 @@
       <c r="F375" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G375" s="1" t="s">
+      <c r="J375" s="1" t="s">
         <v>2274</v>
       </c>
     </row>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A376" s="2" t="s">
         <v>645</v>
       </c>
@@ -14862,7 +14883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A377" s="2" t="s">
         <v>647</v>
       </c>
@@ -14879,7 +14900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A378" s="2" t="s">
         <v>649</v>
       </c>
@@ -14898,11 +14919,11 @@
       <c r="F378" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G378" s="1" t="s">
+      <c r="J378" s="1" t="s">
         <v>2274</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A379" s="2" t="s">
         <v>651</v>
       </c>
@@ -14921,11 +14942,11 @@
       <c r="F379" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G379" s="1" t="s">
+      <c r="J379" s="1" t="s">
         <v>2274</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A380" s="2" t="s">
         <v>653</v>
       </c>
@@ -14944,11 +14965,11 @@
       <c r="F380" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G380" s="1" t="s">
+      <c r="J380" s="1" t="s">
         <v>2274</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A381" s="2" t="s">
         <v>655</v>
       </c>
@@ -14967,11 +14988,11 @@
       <c r="F381" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G381" s="1" t="s">
+      <c r="J381" s="1" t="s">
         <v>2274</v>
       </c>
     </row>
-    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A382" s="2" t="s">
         <v>657</v>
       </c>
@@ -14988,7 +15009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A383" s="2" t="s">
         <v>659</v>
       </c>
@@ -15005,7 +15026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A384" s="2" t="s">
         <v>661</v>
       </c>
@@ -15024,11 +15045,11 @@
       <c r="F384" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G384" s="1" t="s">
+      <c r="J384" s="1" t="s">
         <v>2274</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A385" s="2" t="s">
         <v>663</v>
       </c>
@@ -15047,11 +15068,11 @@
       <c r="F385" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G385" s="1" t="s">
+      <c r="J385" s="1" t="s">
         <v>2274</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A386" s="2" t="s">
         <v>665</v>
       </c>
@@ -15070,11 +15091,11 @@
       <c r="F386" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G386" s="1" t="s">
+      <c r="J386" s="1" t="s">
         <v>2274</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A387" s="2" t="s">
         <v>667</v>
       </c>
@@ -15093,11 +15114,11 @@
       <c r="F387" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="G387" s="1" t="s">
+      <c r="J387" s="1" t="s">
         <v>2274</v>
       </c>
     </row>
-    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A388" s="2" t="s">
         <v>669</v>
       </c>
@@ -15114,7 +15135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A389" s="2" t="s">
         <v>671</v>
       </c>
@@ -15131,7 +15152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A390" s="2" t="s">
         <v>673</v>
       </c>
@@ -15150,11 +15171,11 @@
       <c r="F390" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="G390" s="1" t="s">
+      <c r="J390" s="1" t="s">
         <v>2269</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A391" s="2" t="s">
         <v>675</v>
       </c>
@@ -15173,11 +15194,11 @@
       <c r="F391" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="G391" s="1" t="s">
+      <c r="J391" s="1" t="s">
         <v>2269</v>
       </c>
     </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A392" s="2" t="s">
         <v>1407</v>
       </c>
@@ -15194,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A393" s="2" t="s">
         <v>678</v>
       </c>
@@ -15213,11 +15234,11 @@
       <c r="F393" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="G393" s="1" t="s">
+      <c r="J393" s="1" t="s">
         <v>2275</v>
       </c>
     </row>
-    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A394" s="2" t="s">
         <v>680</v>
       </c>
@@ -15234,7 +15255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A395" s="2" t="s">
         <v>682</v>
       </c>
@@ -15251,7 +15272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A396" s="2" t="s">
         <v>684</v>
       </c>
@@ -15268,7 +15289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A397" s="2" t="s">
         <v>686</v>
       </c>
@@ -15285,7 +15306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A398" s="2" t="s">
         <v>688</v>
       </c>
@@ -15302,7 +15323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A399" s="2" t="s">
         <v>690</v>
       </c>
@@ -15319,7 +15340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A400" s="2" t="s">
         <v>692</v>
       </c>
@@ -15608,7 +15629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A417" s="2" t="s">
         <v>726</v>
       </c>
@@ -15625,7 +15646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A418" s="2" t="s">
         <v>728</v>
       </c>
@@ -15642,7 +15663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A419" s="2" t="s">
         <v>730</v>
       </c>
@@ -15659,7 +15680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A420" s="2" t="s">
         <v>732</v>
       </c>
@@ -15676,7 +15697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A421" s="2" t="s">
         <v>734</v>
       </c>
@@ -15693,7 +15714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A422" s="2" t="s">
         <v>736</v>
       </c>
@@ -15710,7 +15731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A423" s="2" t="s">
         <v>738</v>
       </c>
@@ -15727,7 +15748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A424" s="2" t="s">
         <v>740</v>
       </c>
@@ -15744,7 +15765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A425" s="2" t="s">
         <v>743</v>
       </c>
@@ -15763,11 +15784,11 @@
       <c r="F425" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="G425" s="1" t="s">
+      <c r="J425" s="1" t="s">
         <v>2276</v>
       </c>
     </row>
-    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A426" s="2" t="s">
         <v>741</v>
       </c>
@@ -15784,7 +15805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A427" s="2" t="s">
         <v>745</v>
       </c>
@@ -15801,7 +15822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A428" s="2" t="s">
         <v>747</v>
       </c>
@@ -15818,7 +15839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A429" s="2" t="s">
         <v>749</v>
       </c>
@@ -15835,7 +15856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A430" s="2" t="s">
         <v>751</v>
       </c>
@@ -15852,7 +15873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A431" s="2" t="s">
         <v>753</v>
       </c>
@@ -15869,7 +15890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A432" s="2" t="s">
         <v>755</v>
       </c>
@@ -15886,7 +15907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A433" s="2" t="s">
         <v>757</v>
       </c>
@@ -15903,7 +15924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A434" s="2" t="s">
         <v>759</v>
       </c>
@@ -15920,7 +15941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A435" s="2" t="s">
         <v>760</v>
       </c>
@@ -15939,11 +15960,11 @@
       <c r="F435" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="G435" s="1" t="s">
+      <c r="J435" s="1" t="s">
         <v>2269</v>
       </c>
     </row>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A436" s="2" t="s">
         <v>762</v>
       </c>
@@ -15960,7 +15981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A437" s="2" t="s">
         <v>764</v>
       </c>
@@ -15977,7 +15998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A438" s="2" t="s">
         <v>766</v>
       </c>
@@ -15994,7 +16015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A439" s="2" t="s">
         <v>768</v>
       </c>
@@ -16011,7 +16032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A440" s="2" t="s">
         <v>770</v>
       </c>
@@ -16028,7 +16049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A441" s="2" t="s">
         <v>772</v>
       </c>
@@ -16045,7 +16066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A442" s="2" t="s">
         <v>774</v>
       </c>
@@ -16062,7 +16083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A443" s="2" t="s">
         <v>776</v>
       </c>
@@ -16079,7 +16100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A444" s="2" t="s">
         <v>778</v>
       </c>
@@ -16096,7 +16117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A445" s="2" t="s">
         <v>780</v>
       </c>
@@ -16113,7 +16134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A446" s="2" t="s">
         <v>782</v>
       </c>
@@ -16130,7 +16151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A447" s="2" t="s">
         <v>784</v>
       </c>
@@ -16147,7 +16168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A448" s="2" t="s">
         <v>786</v>
       </c>
@@ -19156,7 +19177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A625" s="2" t="s">
         <v>1115</v>
       </c>
@@ -19173,7 +19194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A626" s="2" t="s">
         <v>1116</v>
       </c>
@@ -19190,7 +19211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A627" s="2" t="s">
         <v>1117</v>
       </c>
@@ -19209,11 +19230,11 @@
       <c r="F627" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="G627" s="1" t="s">
+      <c r="J627" s="1" t="s">
         <v>2277</v>
       </c>
     </row>
-    <row r="628" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A628" s="2" t="s">
         <v>1119</v>
       </c>
@@ -19230,7 +19251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A629" s="2" t="s">
         <v>1121</v>
       </c>
@@ -19247,7 +19268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A630" s="2" t="s">
         <v>1123</v>
       </c>
@@ -19264,7 +19285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A631" s="2" t="s">
         <v>1125</v>
       </c>
@@ -19281,7 +19302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A632" s="2" t="s">
         <v>1127</v>
       </c>
@@ -19298,7 +19319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A633" s="2" t="s">
         <v>1129</v>
       </c>
@@ -19315,7 +19336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A634" s="2" t="s">
         <v>1131</v>
       </c>
@@ -19332,7 +19353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A635" s="2" t="s">
         <v>1133</v>
       </c>
@@ -19349,7 +19370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A636" s="2" t="s">
         <v>1135</v>
       </c>
@@ -19366,7 +19387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A637" s="2" t="s">
         <v>1137</v>
       </c>
@@ -19383,7 +19404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A638" s="2" t="s">
         <v>1139</v>
       </c>
@@ -19400,7 +19421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A639" s="2" t="s">
         <v>1141</v>
       </c>
@@ -19417,7 +19438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A640" s="2" t="s">
         <v>1143</v>
       </c>
@@ -19434,7 +19455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A641" s="2" t="s">
         <v>1145</v>
       </c>
@@ -19451,7 +19472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A642" s="2" t="s">
         <v>1147</v>
       </c>
@@ -19468,7 +19489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A643" s="2" t="s">
         <v>1148</v>
       </c>
@@ -19487,11 +19508,11 @@
       <c r="F643" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="G643" s="1" t="s">
+      <c r="J643" s="1" t="s">
         <v>2278</v>
       </c>
     </row>
-    <row r="644" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A644" s="2" t="s">
         <v>1150</v>
       </c>
@@ -19508,7 +19529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A645" s="2" t="s">
         <v>1152</v>
       </c>
@@ -19525,7 +19546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A646" s="2" t="s">
         <v>1154</v>
       </c>
@@ -19542,7 +19563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A647" s="2" t="s">
         <v>1156</v>
       </c>
@@ -19559,7 +19580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A648" s="2" t="s">
         <v>1158</v>
       </c>
@@ -19576,7 +19597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A649" s="2" t="s">
         <v>1160</v>
       </c>
@@ -19593,7 +19614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A650" s="2" t="s">
         <v>1162</v>
       </c>
@@ -19610,7 +19631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A651" s="2" t="s">
         <v>1164</v>
       </c>
@@ -19627,7 +19648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A652" s="2" t="s">
         <v>1166</v>
       </c>
@@ -19644,7 +19665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A653" s="2" t="s">
         <v>1168</v>
       </c>
@@ -19661,7 +19682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A654" s="2" t="s">
         <v>1170</v>
       </c>
@@ -19678,7 +19699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A655" s="2" t="s">
         <v>1172</v>
       </c>
@@ -19695,7 +19716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A656" s="2" t="s">
         <v>1174</v>
       </c>
@@ -19712,7 +19733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A657" s="2" t="s">
         <v>1176</v>
       </c>
@@ -19729,7 +19750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A658" s="2" t="s">
         <v>1177</v>
       </c>
@@ -19748,11 +19769,11 @@
       <c r="F658" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="G658" s="1" t="s">
+      <c r="J658" s="1" t="s">
         <v>2286</v>
       </c>
     </row>
-    <row r="659" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A659" s="2" t="s">
         <v>1179</v>
       </c>
@@ -19769,7 +19790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A660" s="2" t="s">
         <v>1180</v>
       </c>
@@ -19786,7 +19807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A661" s="2" t="s">
         <v>1181</v>
       </c>
@@ -19803,7 +19824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A662" s="2" t="s">
         <v>1182</v>
       </c>
@@ -19820,7 +19841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A663" s="2" t="s">
         <v>1183</v>
       </c>
@@ -19837,7 +19858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A664" s="2" t="s">
         <v>1184</v>
       </c>
@@ -19854,7 +19875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A665" s="2" t="s">
         <v>1185</v>
       </c>
@@ -19871,7 +19892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A666" s="2" t="s">
         <v>1186</v>
       </c>
@@ -19888,7 +19909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A667" s="2" t="s">
         <v>1187</v>
       </c>
@@ -19905,7 +19926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A668" s="2" t="s">
         <v>1188</v>
       </c>
@@ -19922,7 +19943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A669" s="2" t="s">
         <v>1189</v>
       </c>
@@ -19939,7 +19960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A670" s="2" t="s">
         <v>1190</v>
       </c>
@@ -19956,7 +19977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A671" s="2" t="s">
         <v>1191</v>
       </c>
@@ -19973,7 +19994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A672" s="2" t="s">
         <v>1193</v>
       </c>
@@ -19990,7 +20011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A673" s="2" t="s">
         <v>1194</v>
       </c>
@@ -20009,11 +20030,11 @@
       <c r="F673" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="G673" s="1" t="s">
+      <c r="J673" s="1" t="s">
         <v>2286</v>
       </c>
     </row>
-    <row r="674" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A674" s="2" t="s">
         <v>1196</v>
       </c>
@@ -20030,7 +20051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A675" s="2" t="s">
         <v>1197</v>
       </c>
@@ -20047,7 +20068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A676" s="2" t="s">
         <v>1198</v>
       </c>
@@ -20064,7 +20085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A677" s="2" t="s">
         <v>1199</v>
       </c>
@@ -20081,7 +20102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A678" s="2" t="s">
         <v>1200</v>
       </c>
@@ -20098,7 +20119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A679" s="2" t="s">
         <v>1201</v>
       </c>
@@ -20115,7 +20136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A680" s="2" t="s">
         <v>1202</v>
       </c>
@@ -20132,7 +20153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A681" s="2" t="s">
         <v>1203</v>
       </c>
@@ -20149,7 +20170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A682" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20166,7 +20187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A683" s="2" t="s">
         <v>1205</v>
       </c>
@@ -20183,7 +20204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A684" s="2" t="s">
         <v>1206</v>
       </c>
@@ -20200,7 +20221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A685" s="2" t="s">
         <v>1207</v>
       </c>
@@ -20217,7 +20238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A686" s="2" t="s">
         <v>1208</v>
       </c>
@@ -20234,7 +20255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A687" s="2" t="s">
         <v>1210</v>
       </c>
@@ -20251,7 +20272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A688" s="2" t="s">
         <v>1211</v>
       </c>
@@ -20268,7 +20289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A689" s="2" t="s">
         <v>1213</v>
       </c>
@@ -20285,7 +20306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A690" s="2" t="s">
         <v>1215</v>
       </c>
@@ -20302,7 +20323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A691" s="2" t="s">
         <v>1217</v>
       </c>
@@ -20319,7 +20340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A692" s="2" t="s">
         <v>1219</v>
       </c>
@@ -20336,7 +20357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A693" s="2" t="s">
         <v>1221</v>
       </c>
@@ -20353,7 +20374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A694" s="2" t="s">
         <v>1223</v>
       </c>
@@ -20370,7 +20391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A695" s="2" t="s">
         <v>1225</v>
       </c>
@@ -20387,7 +20408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A696" s="2" t="s">
         <v>1226</v>
       </c>
@@ -20404,7 +20425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A697" s="2" t="s">
         <v>1227</v>
       </c>
@@ -20423,11 +20444,11 @@
       <c r="F697" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="G697" s="1" t="s">
+      <c r="J697" s="1" t="s">
         <v>2279</v>
       </c>
     </row>
-    <row r="698" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A698" s="2" t="s">
         <v>1229</v>
       </c>
@@ -20444,7 +20465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A699" s="2" t="s">
         <v>1231</v>
       </c>
@@ -20461,7 +20482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A700" s="2" t="s">
         <v>1233</v>
       </c>
@@ -20478,7 +20499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A701" s="2" t="s">
         <v>1235</v>
       </c>
@@ -20495,7 +20516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A702" s="2" t="s">
         <v>1237</v>
       </c>
@@ -20512,7 +20533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A703" s="2" t="s">
         <v>1239</v>
       </c>
@@ -20529,7 +20550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A704" s="2" t="s">
         <v>1241</v>
       </c>
@@ -20818,7 +20839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A721" s="2" t="s">
         <v>1275</v>
       </c>
@@ -20835,7 +20856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A722" s="2" t="s">
         <v>1277</v>
       </c>
@@ -20852,7 +20873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A723" s="2" t="s">
         <v>1279</v>
       </c>
@@ -20869,7 +20890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A724" s="2" t="s">
         <v>1281</v>
       </c>
@@ -20886,7 +20907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A725" s="2" t="s">
         <v>1283</v>
       </c>
@@ -20903,7 +20924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A726" s="2" t="s">
         <v>1284</v>
       </c>
@@ -20920,7 +20941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A727" s="2" t="s">
         <v>1286</v>
       </c>
@@ -20939,11 +20960,11 @@
       <c r="F727" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="G727" s="1" t="s">
+      <c r="J727" s="1" t="s">
         <v>2279</v>
       </c>
     </row>
-    <row r="728" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A728" s="2" t="s">
         <v>1288</v>
       </c>
@@ -20960,7 +20981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A729" s="2" t="s">
         <v>1289</v>
       </c>
@@ -20977,7 +20998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A730" s="2" t="s">
         <v>1290</v>
       </c>
@@ -20994,7 +21015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A731" s="2" t="s">
         <v>1291</v>
       </c>
@@ -21011,7 +21032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A732" s="2" t="s">
         <v>1292</v>
       </c>
@@ -21028,7 +21049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A733" s="2" t="s">
         <v>1293</v>
       </c>
@@ -21045,7 +21066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A734" s="2" t="s">
         <v>1294</v>
       </c>
@@ -21062,7 +21083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A735" s="2" t="s">
         <v>1295</v>
       </c>
@@ -21079,7 +21100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A736" s="2" t="s">
         <v>1296</v>
       </c>
@@ -21368,7 +21389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A753" s="2" t="s">
         <v>1313</v>
       </c>
@@ -21385,7 +21406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A754" s="2" t="s">
         <v>1314</v>
       </c>
@@ -21402,7 +21423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A755" s="2" t="s">
         <v>1315</v>
       </c>
@@ -21419,7 +21440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A756" s="2" t="s">
         <v>1316</v>
       </c>
@@ -21438,11 +21459,11 @@
       <c r="F756" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="G756" s="1" t="s">
+      <c r="J756" s="1" t="s">
         <v>2280</v>
       </c>
     </row>
-    <row r="757" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A757" s="2" t="s">
         <v>1318</v>
       </c>
@@ -21459,7 +21480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A758" s="2" t="s">
         <v>1320</v>
       </c>
@@ -21476,7 +21497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A759" s="2" t="s">
         <v>1322</v>
       </c>
@@ -21493,7 +21514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A760" s="2" t="s">
         <v>1324</v>
       </c>
@@ -21510,7 +21531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A761" s="2" t="s">
         <v>1326</v>
       </c>
@@ -21527,7 +21548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A762" s="2" t="s">
         <v>1328</v>
       </c>
@@ -21544,7 +21565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A763" s="2" t="s">
         <v>1330</v>
       </c>
@@ -21561,7 +21582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A764" s="2" t="s">
         <v>1332</v>
       </c>
@@ -21578,7 +21599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A765" s="2" t="s">
         <v>1334</v>
       </c>
@@ -21595,7 +21616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A766" s="2" t="s">
         <v>1336</v>
       </c>
@@ -21612,7 +21633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A767" s="2" t="s">
         <v>1338</v>
       </c>
@@ -21629,7 +21650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A768" s="2" t="s">
         <v>1340</v>
       </c>
@@ -21918,7 +21939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A785" s="2" t="s">
         <v>1373</v>
       </c>
@@ -21935,7 +21956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A786" s="2" t="s">
         <v>1375</v>
       </c>
@@ -21954,11 +21975,11 @@
       <c r="F786" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="G786" s="1" t="s">
+      <c r="J786" s="1" t="s">
         <v>2287</v>
       </c>
     </row>
-    <row r="787" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A787" s="2" t="s">
         <v>1377</v>
       </c>
@@ -21975,7 +21996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A788" s="2" t="s">
         <v>1379</v>
       </c>
@@ -21992,7 +22013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A789" s="2" t="s">
         <v>1381</v>
       </c>
@@ -22009,7 +22030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A790" s="2" t="s">
         <v>1383</v>
       </c>
@@ -22026,7 +22047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A791" s="2" t="s">
         <v>1385</v>
       </c>
@@ -22043,7 +22064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A792" s="2" t="s">
         <v>1387</v>
       </c>
@@ -22060,7 +22081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A793" s="2" t="s">
         <v>1389</v>
       </c>
@@ -22077,7 +22098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A794" s="2" t="s">
         <v>1391</v>
       </c>
@@ -22094,7 +22115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A795" s="2" t="s">
         <v>1393</v>
       </c>
@@ -22111,7 +22132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" s="2">
         <v>1</v>
       </c>
@@ -22128,7 +22149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" s="2">
         <v>2</v>
       </c>
@@ -22145,7 +22166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" s="2">
         <v>3</v>
       </c>
@@ -22162,7 +22183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" s="2">
         <v>4</v>
       </c>
@@ -22179,7 +22200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800" s="2">
         <v>5</v>
       </c>
@@ -22451,16 +22472,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B816" s="7"/>
       <c r="C816" s="7"/>
       <c r="D816" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E816">
-    <filterColumn colId="3">
+  <autoFilter ref="A1:K815">
+    <filterColumn colId="4">
       <filters>
         <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="定比"/>
+        <filter val="定序"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/PD881/data/PD881_Column_Definition_20201014.xlsx
+++ b/PD881/data/PD881_Column_Definition_20201014.xlsx
@@ -15,14 +15,14 @@
     <sheet name="变量名" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">变量名!$A$1:$K$815</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">变量名!$A$1:$K$816</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="2301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="2305">
   <si>
     <t>PID</t>
   </si>
@@ -7039,6 +7039,22 @@
   </si>
   <si>
     <t>定序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定类，分类标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基因分组标签分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7884,11 +7900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K816"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A799" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B817" sqref="B817"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7938,7 +7953,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7953,15 +7968,12 @@
       </c>
       <c r="E2" s="5">
         <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2259</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>2259</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7977,14 +7989,11 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>2293</v>
-      </c>
       <c r="J3" s="1" t="s">
         <v>2293</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -8001,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>1395</v>
       </c>
@@ -8018,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -8034,14 +8043,11 @@
       <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>2260</v>
-      </c>
       <c r="J6" s="1" t="s">
         <v>2260</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -8058,7 +8064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -8098,7 +8104,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -8138,7 +8144,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -8187,7 +8193,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -8204,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -8221,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -8238,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -8255,7 +8261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -8272,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -8289,7 +8295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -8306,7 +8312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -8323,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -8363,7 +8369,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
@@ -8380,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
@@ -8420,7 +8426,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
@@ -8437,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
@@ -8454,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
@@ -8477,7 +8483,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
@@ -8500,7 +8506,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
@@ -8523,7 +8529,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>54</v>
       </c>
@@ -8546,7 +8552,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>56</v>
       </c>
@@ -8569,7 +8575,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>58</v>
       </c>
@@ -8592,7 +8598,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
@@ -8615,7 +8621,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>62</v>
       </c>
@@ -8661,7 +8667,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -8678,7 +8684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>67</v>
       </c>
@@ -8695,7 +8701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>69</v>
       </c>
@@ -8712,7 +8718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>71</v>
       </c>
@@ -8729,7 +8735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>73</v>
       </c>
@@ -8746,7 +8752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>75</v>
       </c>
@@ -8763,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>77</v>
       </c>
@@ -8780,7 +8786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>79</v>
       </c>
@@ -8797,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>81</v>
       </c>
@@ -8823,7 +8829,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>82</v>
       </c>
@@ -8843,7 +8849,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>84</v>
       </c>
@@ -8863,7 +8869,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>86</v>
       </c>
@@ -8880,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>87</v>
       </c>
@@ -8897,7 +8903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>89</v>
       </c>
@@ -8914,7 +8920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>91</v>
       </c>
@@ -8931,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>93</v>
       </c>
@@ -8948,7 +8954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -8965,7 +8971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>97</v>
       </c>
@@ -8982,7 +8988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>99</v>
       </c>
@@ -8999,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>100</v>
       </c>
@@ -9016,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>102</v>
       </c>
@@ -9033,7 +9039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>103</v>
       </c>
@@ -9050,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>104</v>
       </c>
@@ -9113,7 +9119,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>109</v>
       </c>
@@ -9130,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -9147,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>2</v>
       </c>
@@ -9164,7 +9170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>3</v>
       </c>
@@ -9181,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>4</v>
       </c>
@@ -9198,7 +9204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>5</v>
       </c>
@@ -9215,7 +9221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>6</v>
       </c>
@@ -9232,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>7</v>
       </c>
@@ -9249,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>8</v>
       </c>
@@ -9266,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>9</v>
       </c>
@@ -9283,7 +9289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>10</v>
       </c>
@@ -9300,7 +9306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>11</v>
       </c>
@@ -9317,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>12</v>
       </c>
@@ -9334,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>13</v>
       </c>
@@ -9351,7 +9357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>14</v>
       </c>
@@ -9368,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>15</v>
       </c>
@@ -9385,7 +9391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>16</v>
       </c>
@@ -9402,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>17</v>
       </c>
@@ -9419,7 +9425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>18</v>
       </c>
@@ -9436,7 +9442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>19</v>
       </c>
@@ -9453,7 +9459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>20</v>
       </c>
@@ -9470,7 +9476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>21</v>
       </c>
@@ -9487,7 +9493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>22</v>
       </c>
@@ -9504,7 +9510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>23</v>
       </c>
@@ -9521,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>24</v>
       </c>
@@ -9538,7 +9544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>25</v>
       </c>
@@ -9555,7 +9561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>26</v>
       </c>
@@ -9572,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>27</v>
       </c>
@@ -9612,7 +9618,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>113</v>
       </c>
@@ -9629,7 +9635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>114</v>
       </c>
@@ -9646,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>116</v>
       </c>
@@ -9663,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>118</v>
       </c>
@@ -9680,7 +9686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>120</v>
       </c>
@@ -9697,7 +9703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>122</v>
       </c>
@@ -9714,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>124</v>
       </c>
@@ -9731,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>126</v>
       </c>
@@ -9748,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>128</v>
       </c>
@@ -9765,7 +9771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>130</v>
       </c>
@@ -9782,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>132</v>
       </c>
@@ -9799,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>134</v>
       </c>
@@ -9816,7 +9822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>136</v>
       </c>
@@ -9833,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>138</v>
       </c>
@@ -9850,7 +9856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>140</v>
       </c>
@@ -9867,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>142</v>
       </c>
@@ -9884,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>144</v>
       </c>
@@ -9901,7 +9907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>146</v>
       </c>
@@ -9918,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>148</v>
       </c>
@@ -9935,7 +9941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>150</v>
       </c>
@@ -9952,7 +9958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>152</v>
       </c>
@@ -9969,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>154</v>
       </c>
@@ -9986,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>156</v>
       </c>
@@ -10003,7 +10009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>158</v>
       </c>
@@ -10020,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>160</v>
       </c>
@@ -10037,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>162</v>
       </c>
@@ -10054,7 +10060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>164</v>
       </c>
@@ -10071,7 +10077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>166</v>
       </c>
@@ -10088,7 +10094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>168</v>
       </c>
@@ -10105,7 +10111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>170</v>
       </c>
@@ -10122,7 +10128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>172</v>
       </c>
@@ -10139,7 +10145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>174</v>
       </c>
@@ -10156,7 +10162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>176</v>
       </c>
@@ -10173,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>178</v>
       </c>
@@ -10190,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>180</v>
       </c>
@@ -10207,7 +10213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>182</v>
       </c>
@@ -10224,7 +10230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>184</v>
       </c>
@@ -10241,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>186</v>
       </c>
@@ -10258,7 +10264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>188</v>
       </c>
@@ -10275,7 +10281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
         <v>190</v>
       </c>
@@ -10292,7 +10298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
         <v>192</v>
       </c>
@@ -10309,7 +10315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
         <v>194</v>
       </c>
@@ -10326,7 +10332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
         <v>196</v>
       </c>
@@ -10343,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
         <v>198</v>
       </c>
@@ -10360,7 +10366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
         <v>199</v>
       </c>
@@ -10377,7 +10383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>201</v>
       </c>
@@ -10394,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>203</v>
       </c>
@@ -10411,7 +10417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>204</v>
       </c>
@@ -10428,7 +10434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
         <v>206</v>
       </c>
@@ -10451,7 +10457,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>208</v>
       </c>
@@ -10468,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
         <v>210</v>
       </c>
@@ -10491,7 +10497,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>212</v>
       </c>
@@ -10508,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
         <v>214</v>
       </c>
@@ -10525,7 +10531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
         <v>216</v>
       </c>
@@ -10548,7 +10554,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
         <v>218</v>
       </c>
@@ -10565,7 +10571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>220</v>
       </c>
@@ -10588,7 +10594,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>222</v>
       </c>
@@ -10605,7 +10611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
         <v>224</v>
       </c>
@@ -10628,7 +10634,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
         <v>226</v>
       </c>
@@ -10645,7 +10651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
         <v>228</v>
       </c>
@@ -10662,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
         <v>230</v>
       </c>
@@ -10679,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
         <v>232</v>
       </c>
@@ -10696,7 +10702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
         <v>234</v>
       </c>
@@ -10713,7 +10719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
         <v>236</v>
       </c>
@@ -10736,7 +10742,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
         <v>238</v>
       </c>
@@ -10753,7 +10759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
         <v>240</v>
       </c>
@@ -10776,7 +10782,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
         <v>242</v>
       </c>
@@ -10793,7 +10799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
         <v>244</v>
       </c>
@@ -10836,7 +10842,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
         <v>247</v>
       </c>
@@ -10859,7 +10865,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
         <v>248</v>
       </c>
@@ -10876,7 +10882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
         <v>250</v>
       </c>
@@ -10893,7 +10899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
         <v>252</v>
       </c>
@@ -10916,7 +10922,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
         <v>254</v>
       </c>
@@ -10933,7 +10939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
         <v>256</v>
       </c>
@@ -10950,7 +10956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
         <v>257</v>
       </c>
@@ -10973,7 +10979,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
         <v>258</v>
       </c>
@@ -10990,7 +10996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
         <v>260</v>
       </c>
@@ -11007,7 +11013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
         <v>261</v>
       </c>
@@ -11030,7 +11036,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
         <v>263</v>
       </c>
@@ -11047,7 +11053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
         <v>265</v>
       </c>
@@ -11064,7 +11070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
         <v>266</v>
       </c>
@@ -11087,7 +11093,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
         <v>268</v>
       </c>
@@ -11104,7 +11110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
         <v>270</v>
       </c>
@@ -11121,7 +11127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
         <v>271</v>
       </c>
@@ -11144,7 +11150,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
         <v>273</v>
       </c>
@@ -11161,7 +11167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
         <v>275</v>
       </c>
@@ -11178,7 +11184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
         <v>276</v>
       </c>
@@ -11201,7 +11207,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
         <v>278</v>
       </c>
@@ -11218,7 +11224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
         <v>280</v>
       </c>
@@ -11235,7 +11241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
         <v>1419</v>
       </c>
@@ -11258,7 +11264,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
         <v>282</v>
       </c>
@@ -11275,7 +11281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
         <v>284</v>
       </c>
@@ -11430,7 +11436,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
         <v>297</v>
       </c>
@@ -11453,7 +11459,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
         <v>299</v>
       </c>
@@ -11476,7 +11482,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A193" s="2" t="s">
         <v>301</v>
       </c>
@@ -11499,7 +11505,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
         <v>303</v>
       </c>
@@ -11522,7 +11528,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
         <v>305</v>
       </c>
@@ -11542,7 +11548,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
         <v>307</v>
       </c>
@@ -11559,7 +11565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
         <v>308</v>
       </c>
@@ -11582,7 +11588,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
         <v>310</v>
       </c>
@@ -11599,7 +11605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
         <v>312</v>
       </c>
@@ -11616,7 +11622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
         <v>313</v>
       </c>
@@ -11639,7 +11645,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
         <v>315</v>
       </c>
@@ -11656,7 +11662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
         <v>316</v>
       </c>
@@ -11673,7 +11679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
         <v>317</v>
       </c>
@@ -11696,7 +11702,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
         <v>318</v>
       </c>
@@ -11716,7 +11722,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
         <v>320</v>
       </c>
@@ -11739,7 +11745,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
         <v>322</v>
       </c>
@@ -11756,7 +11762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
         <v>324</v>
       </c>
@@ -11773,7 +11779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
         <v>325</v>
       </c>
@@ -11796,7 +11802,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
         <v>327</v>
       </c>
@@ -11813,7 +11819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
         <v>329</v>
       </c>
@@ -11830,7 +11836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
         <v>330</v>
       </c>
@@ -11853,7 +11859,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
         <v>332</v>
       </c>
@@ -11870,7 +11876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
         <v>334</v>
       </c>
@@ -11887,7 +11893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>335</v>
       </c>
@@ -11904,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
         <v>337</v>
       </c>
@@ -11921,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
         <v>339</v>
       </c>
@@ -11944,7 +11950,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A217" s="2" t="s">
         <v>340</v>
       </c>
@@ -11961,7 +11967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
         <v>342</v>
       </c>
@@ -12004,7 +12010,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
         <v>346</v>
       </c>
@@ -12021,7 +12027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A221" s="2" t="s">
         <v>348</v>
       </c>
@@ -12038,7 +12044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
         <v>349</v>
       </c>
@@ -12055,7 +12061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A223" s="2" t="s">
         <v>351</v>
       </c>
@@ -12075,7 +12081,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A224" s="2" t="s">
         <v>353</v>
       </c>
@@ -12095,7 +12101,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
         <v>355</v>
       </c>
@@ -12115,7 +12121,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
         <v>357</v>
       </c>
@@ -12135,7 +12141,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
         <v>359</v>
       </c>
@@ -12155,7 +12161,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
         <v>361</v>
       </c>
@@ -12175,7 +12181,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A229" s="2" t="s">
         <v>363</v>
       </c>
@@ -12195,7 +12201,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
         <v>365</v>
       </c>
@@ -12215,7 +12221,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
         <v>367</v>
       </c>
@@ -12235,7 +12241,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
         <v>368</v>
       </c>
@@ -12255,7 +12261,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
         <v>370</v>
       </c>
@@ -12275,7 +12281,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A234" s="2" t="s">
         <v>372</v>
       </c>
@@ -12295,7 +12301,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
         <v>374</v>
       </c>
@@ -12312,7 +12318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
         <v>375</v>
       </c>
@@ -12329,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
         <v>377</v>
       </c>
@@ -12346,7 +12352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A238" s="2" t="s">
         <v>379</v>
       </c>
@@ -12363,7 +12369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A239" s="2" t="s">
         <v>381</v>
       </c>
@@ -12380,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A240" s="2" t="s">
         <v>383</v>
       </c>
@@ -12397,7 +12403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A241" s="2" t="s">
         <v>385</v>
       </c>
@@ -12414,7 +12420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A242" s="2" t="s">
         <v>387</v>
       </c>
@@ -12454,7 +12460,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
         <v>390</v>
       </c>
@@ -12471,7 +12477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
         <v>392</v>
       </c>
@@ -12488,7 +12494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A246" s="2" t="s">
         <v>394</v>
       </c>
@@ -12505,7 +12511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
         <v>396</v>
       </c>
@@ -12522,7 +12528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A248" s="2" t="s">
         <v>398</v>
       </c>
@@ -12539,7 +12545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A249" s="2" t="s">
         <v>400</v>
       </c>
@@ -12556,7 +12562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A250" s="2" t="s">
         <v>402</v>
       </c>
@@ -12573,7 +12579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A251" s="2" t="s">
         <v>404</v>
       </c>
@@ -12590,7 +12596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A252" s="2" t="s">
         <v>406</v>
       </c>
@@ -12607,7 +12613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
         <v>408</v>
       </c>
@@ -12624,7 +12630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A254" s="2" t="s">
         <v>410</v>
       </c>
@@ -12641,7 +12647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
         <v>412</v>
       </c>
@@ -12658,7 +12664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A256" s="2" t="s">
         <v>414</v>
       </c>
@@ -12675,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A257" s="2" t="s">
         <v>416</v>
       </c>
@@ -12692,7 +12698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
         <v>418</v>
       </c>
@@ -12709,7 +12715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A259" s="2" t="s">
         <v>420</v>
       </c>
@@ -12726,7 +12732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A260" s="2" t="s">
         <v>422</v>
       </c>
@@ -12743,7 +12749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A261" s="2" t="s">
         <v>424</v>
       </c>
@@ -12760,7 +12766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A262" s="2" t="s">
         <v>426</v>
       </c>
@@ -12777,7 +12783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A263" s="2" t="s">
         <v>428</v>
       </c>
@@ -12794,7 +12800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
         <v>430</v>
       </c>
@@ -12811,7 +12817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A265" s="2" t="s">
         <v>432</v>
       </c>
@@ -12828,7 +12834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A266" s="2" t="s">
         <v>434</v>
       </c>
@@ -12845,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A267" s="2" t="s">
         <v>435</v>
       </c>
@@ -12885,7 +12891,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A269" s="2" t="s">
         <v>2245</v>
       </c>
@@ -12925,7 +12931,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A271" s="2" t="s">
         <v>442</v>
       </c>
@@ -12942,7 +12948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A272" s="2" t="s">
         <v>444</v>
       </c>
@@ -12959,7 +12965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A273" s="2" t="s">
         <v>446</v>
       </c>
@@ -12976,7 +12982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A274" s="2" t="s">
         <v>448</v>
       </c>
@@ -12993,7 +12999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A275" s="2" t="s">
         <v>450</v>
       </c>
@@ -13010,7 +13016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A276" s="2" t="s">
         <v>452</v>
       </c>
@@ -13027,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A277" s="2" t="s">
         <v>454</v>
       </c>
@@ -13044,7 +13050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A278" s="2" t="s">
         <v>456</v>
       </c>
@@ -13061,7 +13067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A279" s="2" t="s">
         <v>458</v>
       </c>
@@ -13078,7 +13084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A280" s="2" t="s">
         <v>460</v>
       </c>
@@ -13095,7 +13101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A281" s="2" t="s">
         <v>462</v>
       </c>
@@ -13112,7 +13118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A282" s="2" t="s">
         <v>464</v>
       </c>
@@ -13129,7 +13135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A283" s="2" t="s">
         <v>466</v>
       </c>
@@ -13169,7 +13175,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A285" s="2" t="s">
         <v>470</v>
       </c>
@@ -13232,7 +13238,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A288" s="2" t="s">
         <v>476</v>
       </c>
@@ -13295,7 +13301,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A291" s="2" t="s">
         <v>482</v>
       </c>
@@ -13358,7 +13364,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A294" s="2" t="s">
         <v>488</v>
       </c>
@@ -13375,7 +13381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A295" s="2" t="s">
         <v>490</v>
       </c>
@@ -13392,7 +13398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A296" s="2" t="s">
         <v>492</v>
       </c>
@@ -13409,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A297" s="2" t="s">
         <v>494</v>
       </c>
@@ -13426,7 +13432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A298" s="2" t="s">
         <v>496</v>
       </c>
@@ -13443,7 +13449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A299" s="2" t="s">
         <v>498</v>
       </c>
@@ -13460,7 +13466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A300" s="2" t="s">
         <v>500</v>
       </c>
@@ -13477,7 +13483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A301" s="2" t="s">
         <v>502</v>
       </c>
@@ -13494,7 +13500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A302" s="2" t="s">
         <v>504</v>
       </c>
@@ -13511,7 +13517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A303" s="2" t="s">
         <v>506</v>
       </c>
@@ -13528,7 +13534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A304" s="2" t="s">
         <v>508</v>
       </c>
@@ -13545,7 +13551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A305" s="2" t="s">
         <v>510</v>
       </c>
@@ -13562,7 +13568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A306" s="2" t="s">
         <v>512</v>
       </c>
@@ -13579,7 +13585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A307" s="2" t="s">
         <v>514</v>
       </c>
@@ -13596,7 +13602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A308" s="2" t="s">
         <v>516</v>
       </c>
@@ -13613,7 +13619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A309" s="2" t="s">
         <v>518</v>
       </c>
@@ -13630,7 +13636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A310" s="2" t="s">
         <v>520</v>
       </c>
@@ -13647,7 +13653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A311" s="2" t="s">
         <v>522</v>
       </c>
@@ -13664,7 +13670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A312" s="2" t="s">
         <v>524</v>
       </c>
@@ -13681,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A313" s="2" t="s">
         <v>526</v>
       </c>
@@ -13698,7 +13704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A314" s="2" t="s">
         <v>528</v>
       </c>
@@ -13715,7 +13721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A315" s="2" t="s">
         <v>530</v>
       </c>
@@ -13732,7 +13738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A316" s="2" t="s">
         <v>532</v>
       </c>
@@ -13749,7 +13755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A317" s="2" t="s">
         <v>534</v>
       </c>
@@ -13766,7 +13772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A318" s="2" t="s">
         <v>536</v>
       </c>
@@ -13783,7 +13789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A319" s="2" t="s">
         <v>538</v>
       </c>
@@ -13800,7 +13806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A320" s="2" t="s">
         <v>540</v>
       </c>
@@ -13817,7 +13823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A321" s="2" t="s">
         <v>542</v>
       </c>
@@ -13834,7 +13840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A322" s="2" t="s">
         <v>544</v>
       </c>
@@ -13851,7 +13857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A323" s="2" t="s">
         <v>546</v>
       </c>
@@ -14029,7 +14035,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A331" s="2" t="s">
         <v>557</v>
       </c>
@@ -14046,7 +14052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A332" s="2" t="s">
         <v>559</v>
       </c>
@@ -14086,7 +14092,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A334" s="2" t="s">
         <v>563</v>
       </c>
@@ -14103,7 +14109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A335" s="2" t="s">
         <v>565</v>
       </c>
@@ -14143,7 +14149,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A337" s="2" t="s">
         <v>569</v>
       </c>
@@ -14160,7 +14166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A338" s="2" t="s">
         <v>571</v>
       </c>
@@ -14200,7 +14206,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A340" s="2" t="s">
         <v>575</v>
       </c>
@@ -14217,7 +14223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A341" s="2" t="s">
         <v>577</v>
       </c>
@@ -14257,7 +14263,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A343" s="2" t="s">
         <v>581</v>
       </c>
@@ -14274,7 +14280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A344" s="2" t="s">
         <v>583</v>
       </c>
@@ -14314,7 +14320,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A346" s="2" t="s">
         <v>587</v>
       </c>
@@ -14331,7 +14337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A347" s="2" t="s">
         <v>589</v>
       </c>
@@ -14348,7 +14354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A348" s="2" t="s">
         <v>591</v>
       </c>
@@ -14388,7 +14394,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A350" s="2" t="s">
         <v>595</v>
       </c>
@@ -14405,7 +14411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A351" s="2" t="s">
         <v>597</v>
       </c>
@@ -14422,7 +14428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A352" s="2" t="s">
         <v>599</v>
       </c>
@@ -14439,7 +14445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A353" s="2" t="s">
         <v>601</v>
       </c>
@@ -14456,7 +14462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A354" s="2" t="s">
         <v>603</v>
       </c>
@@ -14473,7 +14479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A355" s="2" t="s">
         <v>605</v>
       </c>
@@ -14490,7 +14496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A356" s="2" t="s">
         <v>607</v>
       </c>
@@ -14507,7 +14513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A357" s="2" t="s">
         <v>609</v>
       </c>
@@ -14524,7 +14530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A358" s="2" t="s">
         <v>611</v>
       </c>
@@ -14564,7 +14570,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A360" s="2" t="s">
         <v>615</v>
       </c>
@@ -14581,7 +14587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A361" s="2" t="s">
         <v>617</v>
       </c>
@@ -14598,7 +14604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A362" s="2" t="s">
         <v>619</v>
       </c>
@@ -14615,7 +14621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A363" s="2" t="s">
         <v>621</v>
       </c>
@@ -14632,7 +14638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A364" s="2" t="s">
         <v>623</v>
       </c>
@@ -14649,7 +14655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A365" s="2" t="s">
         <v>625</v>
       </c>
@@ -14666,7 +14672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A366" s="2" t="s">
         <v>627</v>
       </c>
@@ -14683,7 +14689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A367" s="2" t="s">
         <v>629</v>
       </c>
@@ -14700,7 +14706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A368" s="2" t="s">
         <v>631</v>
       </c>
@@ -14740,7 +14746,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A370" s="2" t="s">
         <v>635</v>
       </c>
@@ -14757,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A371" s="2" t="s">
         <v>637</v>
       </c>
@@ -14866,7 +14872,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A376" s="2" t="s">
         <v>645</v>
       </c>
@@ -14883,7 +14889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A377" s="2" t="s">
         <v>647</v>
       </c>
@@ -14992,7 +14998,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A382" s="2" t="s">
         <v>657</v>
       </c>
@@ -15009,7 +15015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A383" s="2" t="s">
         <v>659</v>
       </c>
@@ -15118,7 +15124,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A388" s="2" t="s">
         <v>669</v>
       </c>
@@ -15135,7 +15141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A389" s="2" t="s">
         <v>671</v>
       </c>
@@ -15198,7 +15204,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A392" s="2" t="s">
         <v>1407</v>
       </c>
@@ -15238,7 +15244,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A394" s="2" t="s">
         <v>680</v>
       </c>
@@ -15255,7 +15261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A395" s="2" t="s">
         <v>682</v>
       </c>
@@ -15272,7 +15278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A396" s="2" t="s">
         <v>684</v>
       </c>
@@ -15289,7 +15295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A397" s="2" t="s">
         <v>686</v>
       </c>
@@ -15306,7 +15312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A398" s="2" t="s">
         <v>688</v>
       </c>
@@ -15323,7 +15329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A399" s="2" t="s">
         <v>690</v>
       </c>
@@ -15340,7 +15346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A400" s="2" t="s">
         <v>692</v>
       </c>
@@ -15357,7 +15363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A401" s="2" t="s">
         <v>694</v>
       </c>
@@ -15374,7 +15380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A402" s="2" t="s">
         <v>696</v>
       </c>
@@ -15391,7 +15397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A403" s="2" t="s">
         <v>698</v>
       </c>
@@ -15408,7 +15414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A404" s="2" t="s">
         <v>700</v>
       </c>
@@ -15425,7 +15431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A405" s="2" t="s">
         <v>702</v>
       </c>
@@ -15442,7 +15448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A406" s="2" t="s">
         <v>704</v>
       </c>
@@ -15459,7 +15465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A407" s="2" t="s">
         <v>706</v>
       </c>
@@ -15476,7 +15482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A408" s="2" t="s">
         <v>708</v>
       </c>
@@ -15493,7 +15499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A409" s="2" t="s">
         <v>710</v>
       </c>
@@ -15510,7 +15516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A410" s="2" t="s">
         <v>712</v>
       </c>
@@ -15527,7 +15533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A411" s="2" t="s">
         <v>714</v>
       </c>
@@ -15544,7 +15550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A412" s="2" t="s">
         <v>716</v>
       </c>
@@ -15561,7 +15567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A413" s="2" t="s">
         <v>718</v>
       </c>
@@ -15578,7 +15584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A414" s="2" t="s">
         <v>720</v>
       </c>
@@ -15595,7 +15601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A415" s="2" t="s">
         <v>722</v>
       </c>
@@ -15612,7 +15618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A416" s="2" t="s">
         <v>724</v>
       </c>
@@ -15629,7 +15635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A417" s="2" t="s">
         <v>726</v>
       </c>
@@ -15646,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A418" s="2" t="s">
         <v>728</v>
       </c>
@@ -15663,7 +15669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A419" s="2" t="s">
         <v>730</v>
       </c>
@@ -15680,7 +15686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A420" s="2" t="s">
         <v>732</v>
       </c>
@@ -15697,7 +15703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A421" s="2" t="s">
         <v>734</v>
       </c>
@@ -15714,7 +15720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A422" s="2" t="s">
         <v>736</v>
       </c>
@@ -15731,7 +15737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A423" s="2" t="s">
         <v>738</v>
       </c>
@@ -15748,7 +15754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A424" s="2" t="s">
         <v>740</v>
       </c>
@@ -15788,7 +15794,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A426" s="2" t="s">
         <v>741</v>
       </c>
@@ -15805,7 +15811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A427" s="2" t="s">
         <v>745</v>
       </c>
@@ -15822,7 +15828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A428" s="2" t="s">
         <v>747</v>
       </c>
@@ -15839,7 +15845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A429" s="2" t="s">
         <v>749</v>
       </c>
@@ -15856,7 +15862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A430" s="2" t="s">
         <v>751</v>
       </c>
@@ -15873,7 +15879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A431" s="2" t="s">
         <v>753</v>
       </c>
@@ -15890,7 +15896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A432" s="2" t="s">
         <v>755</v>
       </c>
@@ -15907,7 +15913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A433" s="2" t="s">
         <v>757</v>
       </c>
@@ -15924,7 +15930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A434" s="2" t="s">
         <v>759</v>
       </c>
@@ -15964,7 +15970,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A436" s="2" t="s">
         <v>762</v>
       </c>
@@ -15981,7 +15987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A437" s="2" t="s">
         <v>764</v>
       </c>
@@ -15998,7 +16004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A438" s="2" t="s">
         <v>766</v>
       </c>
@@ -16015,7 +16021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A439" s="2" t="s">
         <v>768</v>
       </c>
@@ -16032,7 +16038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A440" s="2" t="s">
         <v>770</v>
       </c>
@@ -16049,7 +16055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A441" s="2" t="s">
         <v>772</v>
       </c>
@@ -16066,7 +16072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A442" s="2" t="s">
         <v>774</v>
       </c>
@@ -16083,7 +16089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A443" s="2" t="s">
         <v>776</v>
       </c>
@@ -16100,7 +16106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A444" s="2" t="s">
         <v>778</v>
       </c>
@@ -16117,7 +16123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A445" s="2" t="s">
         <v>780</v>
       </c>
@@ -16134,7 +16140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A446" s="2" t="s">
         <v>782</v>
       </c>
@@ -16151,7 +16157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A447" s="2" t="s">
         <v>784</v>
       </c>
@@ -16168,7 +16174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A448" s="2" t="s">
         <v>786</v>
       </c>
@@ -16185,7 +16191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A449" s="2" t="s">
         <v>788</v>
       </c>
@@ -16202,7 +16208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A450" s="2" t="s">
         <v>790</v>
       </c>
@@ -16219,7 +16225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A451" s="2" t="s">
         <v>792</v>
       </c>
@@ -16236,7 +16242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A452" s="2" t="s">
         <v>794</v>
       </c>
@@ -16253,7 +16259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A453" s="2" t="s">
         <v>796</v>
       </c>
@@ -16270,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A454" s="2" t="s">
         <v>798</v>
       </c>
@@ -16287,7 +16293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A455" s="2" t="s">
         <v>800</v>
       </c>
@@ -16304,7 +16310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A456" s="2" t="s">
         <v>802</v>
       </c>
@@ -16321,7 +16327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A457" s="2" t="s">
         <v>804</v>
       </c>
@@ -16338,7 +16344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A458" s="2" t="s">
         <v>806</v>
       </c>
@@ -16355,7 +16361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A459" s="2" t="s">
         <v>808</v>
       </c>
@@ -16372,7 +16378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A460" s="2" t="s">
         <v>810</v>
       </c>
@@ -16389,7 +16395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A461" s="2" t="s">
         <v>812</v>
       </c>
@@ -16406,7 +16412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A462" s="2" t="s">
         <v>814</v>
       </c>
@@ -16423,7 +16429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A463" s="2" t="s">
         <v>816</v>
       </c>
@@ -16440,7 +16446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A464" s="2" t="s">
         <v>818</v>
       </c>
@@ -16457,7 +16463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A465" s="2" t="s">
         <v>820</v>
       </c>
@@ -16474,7 +16480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A466" s="2" t="s">
         <v>822</v>
       </c>
@@ -16491,7 +16497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A467" s="2" t="s">
         <v>823</v>
       </c>
@@ -16508,7 +16514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A468" s="2" t="s">
         <v>825</v>
       </c>
@@ -16525,7 +16531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A469" s="2" t="s">
         <v>827</v>
       </c>
@@ -16542,7 +16548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A470" s="2" t="s">
         <v>829</v>
       </c>
@@ -16559,7 +16565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A471" s="2" t="s">
         <v>831</v>
       </c>
@@ -16576,7 +16582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A472" s="2" t="s">
         <v>833</v>
       </c>
@@ -16593,7 +16599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A473" s="2" t="s">
         <v>835</v>
       </c>
@@ -16610,7 +16616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A474" s="2" t="s">
         <v>837</v>
       </c>
@@ -16627,7 +16633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A475" s="2" t="s">
         <v>839</v>
       </c>
@@ -16644,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A476" s="2" t="s">
         <v>841</v>
       </c>
@@ -16661,7 +16667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A477" s="2" t="s">
         <v>842</v>
       </c>
@@ -16678,7 +16684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A478" s="2" t="s">
         <v>844</v>
       </c>
@@ -16695,7 +16701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A479" s="2" t="s">
         <v>845</v>
       </c>
@@ -16712,7 +16718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A480" s="2" t="s">
         <v>847</v>
       </c>
@@ -16729,7 +16735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A481" s="2" t="s">
         <v>849</v>
       </c>
@@ -16746,7 +16752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A482" s="2" t="s">
         <v>850</v>
       </c>
@@ -16763,7 +16769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A483" s="2" t="s">
         <v>852</v>
       </c>
@@ -16780,7 +16786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A484" s="2" t="s">
         <v>854</v>
       </c>
@@ -16797,7 +16803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A485" s="2" t="s">
         <v>856</v>
       </c>
@@ -16814,7 +16820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A486" s="2" t="s">
         <v>858</v>
       </c>
@@ -16831,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A487" s="2" t="s">
         <v>860</v>
       </c>
@@ -16848,7 +16854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A488" s="2" t="s">
         <v>862</v>
       </c>
@@ -16865,7 +16871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A489" s="2" t="s">
         <v>864</v>
       </c>
@@ -16882,7 +16888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A490" s="2" t="s">
         <v>866</v>
       </c>
@@ -16899,7 +16905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A491" s="2" t="s">
         <v>868</v>
       </c>
@@ -16916,7 +16922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A492" s="2" t="s">
         <v>870</v>
       </c>
@@ -16933,7 +16939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A493" s="2" t="s">
         <v>872</v>
       </c>
@@ -16950,7 +16956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A494" s="2" t="s">
         <v>873</v>
       </c>
@@ -16967,7 +16973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A495" s="2" t="s">
         <v>875</v>
       </c>
@@ -16984,7 +16990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A496" s="2" t="s">
         <v>877</v>
       </c>
@@ -17001,7 +17007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A497" s="2" t="s">
         <v>879</v>
       </c>
@@ -17018,7 +17024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A498" s="2" t="s">
         <v>881</v>
       </c>
@@ -17035,7 +17041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A499" s="2" t="s">
         <v>882</v>
       </c>
@@ -17052,7 +17058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A500" s="2" t="s">
         <v>884</v>
       </c>
@@ -17069,7 +17075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A501" s="2" t="s">
         <v>886</v>
       </c>
@@ -17086,7 +17092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A502" s="2" t="s">
         <v>888</v>
       </c>
@@ -17103,7 +17109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A503" s="2" t="s">
         <v>890</v>
       </c>
@@ -17120,7 +17126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A504" s="2" t="s">
         <v>892</v>
       </c>
@@ -17137,7 +17143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A505" s="2" t="s">
         <v>894</v>
       </c>
@@ -17154,7 +17160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A506" s="2" t="s">
         <v>896</v>
       </c>
@@ -17171,7 +17177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A507" s="2" t="s">
         <v>898</v>
       </c>
@@ -17188,7 +17194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A508" s="2" t="s">
         <v>899</v>
       </c>
@@ -17205,7 +17211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A509" s="2" t="s">
         <v>901</v>
       </c>
@@ -17222,7 +17228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A510" s="2" t="s">
         <v>903</v>
       </c>
@@ -17239,7 +17245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A511" s="2" t="s">
         <v>904</v>
       </c>
@@ -17256,7 +17262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A512" s="2" t="s">
         <v>906</v>
       </c>
@@ -17273,7 +17279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A513" s="2" t="s">
         <v>908</v>
       </c>
@@ -17290,7 +17296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A514" s="2" t="s">
         <v>910</v>
       </c>
@@ -17307,7 +17313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A515" s="2" t="s">
         <v>911</v>
       </c>
@@ -17324,7 +17330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A516" s="2" t="s">
         <v>913</v>
       </c>
@@ -17341,7 +17347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A517" s="2" t="s">
         <v>915</v>
       </c>
@@ -17358,7 +17364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A518" s="2" t="s">
         <v>917</v>
       </c>
@@ -17375,7 +17381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A519" s="2" t="s">
         <v>919</v>
       </c>
@@ -17392,7 +17398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A520" s="2" t="s">
         <v>920</v>
       </c>
@@ -17409,7 +17415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A521" s="2" t="s">
         <v>922</v>
       </c>
@@ -17426,7 +17432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A522" s="2" t="s">
         <v>923</v>
       </c>
@@ -17443,7 +17449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A523" s="2" t="s">
         <v>925</v>
       </c>
@@ -17460,7 +17466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A524" s="2" t="s">
         <v>927</v>
       </c>
@@ -17477,7 +17483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A525" s="2" t="s">
         <v>929</v>
       </c>
@@ -17494,7 +17500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A526" s="2" t="s">
         <v>931</v>
       </c>
@@ -17511,7 +17517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A527" s="2" t="s">
         <v>933</v>
       </c>
@@ -17528,7 +17534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A528" s="2" t="s">
         <v>935</v>
       </c>
@@ -17545,7 +17551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A529" s="2" t="s">
         <v>937</v>
       </c>
@@ -17562,7 +17568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A530" s="2" t="s">
         <v>939</v>
       </c>
@@ -17579,7 +17585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A531" s="2" t="s">
         <v>941</v>
       </c>
@@ -17596,7 +17602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A532" s="2" t="s">
         <v>943</v>
       </c>
@@ -17613,7 +17619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A533" s="2" t="s">
         <v>945</v>
       </c>
@@ -17630,7 +17636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A534" s="2" t="s">
         <v>946</v>
       </c>
@@ -17647,7 +17653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A535" s="2" t="s">
         <v>948</v>
       </c>
@@ -17664,7 +17670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A536" s="2" t="s">
         <v>950</v>
       </c>
@@ -17681,7 +17687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A537" s="2" t="s">
         <v>952</v>
       </c>
@@ -17698,7 +17704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A538" s="2" t="s">
         <v>954</v>
       </c>
@@ -17715,7 +17721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A539" s="2" t="s">
         <v>955</v>
       </c>
@@ -17732,7 +17738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A540" s="2" t="s">
         <v>957</v>
       </c>
@@ -17749,7 +17755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A541" s="2" t="s">
         <v>959</v>
       </c>
@@ -17766,7 +17772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A542" s="2" t="s">
         <v>961</v>
       </c>
@@ -17783,7 +17789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A543" s="2" t="s">
         <v>963</v>
       </c>
@@ -17800,7 +17806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A544" s="2" t="s">
         <v>965</v>
       </c>
@@ -17817,7 +17823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A545" s="2" t="s">
         <v>967</v>
       </c>
@@ -17834,7 +17840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A546" s="2" t="s">
         <v>969</v>
       </c>
@@ -17851,7 +17857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A547" s="2" t="s">
         <v>971</v>
       </c>
@@ -17868,7 +17874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A548" s="2" t="s">
         <v>973</v>
       </c>
@@ -17885,7 +17891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A549" s="2" t="s">
         <v>974</v>
       </c>
@@ -17902,7 +17908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A550" s="2" t="s">
         <v>976</v>
       </c>
@@ -17919,7 +17925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A551" s="2" t="s">
         <v>978</v>
       </c>
@@ -17936,7 +17942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A552" s="2" t="s">
         <v>980</v>
       </c>
@@ -17953,7 +17959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A553" s="2" t="s">
         <v>982</v>
       </c>
@@ -17970,7 +17976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A554" s="2" t="s">
         <v>984</v>
       </c>
@@ -17987,7 +17993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A555" s="2" t="s">
         <v>986</v>
       </c>
@@ -18004,7 +18010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A556" s="2" t="s">
         <v>988</v>
       </c>
@@ -18021,7 +18027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A557" s="2" t="s">
         <v>990</v>
       </c>
@@ -18038,7 +18044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A558" s="2" t="s">
         <v>992</v>
       </c>
@@ -18055,7 +18061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A559" s="2" t="s">
         <v>994</v>
       </c>
@@ -18072,7 +18078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A560" s="2" t="s">
         <v>995</v>
       </c>
@@ -18089,7 +18095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A561" s="2" t="s">
         <v>997</v>
       </c>
@@ -18106,7 +18112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A562" s="2" t="s">
         <v>999</v>
       </c>
@@ -18123,7 +18129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A563" s="2" t="s">
         <v>1001</v>
       </c>
@@ -18140,7 +18146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A564" s="2" t="s">
         <v>1003</v>
       </c>
@@ -18157,7 +18163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A565" s="2" t="s">
         <v>1005</v>
       </c>
@@ -18174,7 +18180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A566" s="2" t="s">
         <v>1007</v>
       </c>
@@ -18191,7 +18197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A567" s="2" t="s">
         <v>1009</v>
       </c>
@@ -18208,7 +18214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A568" s="2" t="s">
         <v>1011</v>
       </c>
@@ -18225,7 +18231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A569" s="2" t="s">
         <v>1013</v>
       </c>
@@ -18242,7 +18248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A570" s="2" t="s">
         <v>1015</v>
       </c>
@@ -18259,7 +18265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A571" s="2" t="s">
         <v>1017</v>
       </c>
@@ -18276,7 +18282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A572" s="2" t="s">
         <v>1019</v>
       </c>
@@ -18293,7 +18299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A573" s="2" t="s">
         <v>1021</v>
       </c>
@@ -18310,7 +18316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A574" s="2" t="s">
         <v>1023</v>
       </c>
@@ -18327,7 +18333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A575" s="2" t="s">
         <v>1024</v>
       </c>
@@ -18344,7 +18350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A576" s="2" t="s">
         <v>1026</v>
       </c>
@@ -18361,7 +18367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A577" s="2" t="s">
         <v>1028</v>
       </c>
@@ -18378,7 +18384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A578" s="2" t="s">
         <v>1030</v>
       </c>
@@ -18395,7 +18401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A579" s="2" t="s">
         <v>1032</v>
       </c>
@@ -18412,7 +18418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A580" s="2" t="s">
         <v>1034</v>
       </c>
@@ -18429,7 +18435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A581" s="2" t="s">
         <v>1036</v>
       </c>
@@ -18446,7 +18452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A582" s="2" t="s">
         <v>1038</v>
       </c>
@@ -18463,7 +18469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A583" s="2" t="s">
         <v>1039</v>
       </c>
@@ -18480,7 +18486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A584" s="2" t="s">
         <v>1040</v>
       </c>
@@ -18497,7 +18503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A585" s="2" t="s">
         <v>1042</v>
       </c>
@@ -18514,7 +18520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A586" s="2" t="s">
         <v>1044</v>
       </c>
@@ -18531,7 +18537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A587" s="2" t="s">
         <v>1046</v>
       </c>
@@ -18548,7 +18554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A588" s="2" t="s">
         <v>1048</v>
       </c>
@@ -18565,7 +18571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A589" s="2" t="s">
         <v>1050</v>
       </c>
@@ -18582,7 +18588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A590" s="2" t="s">
         <v>1052</v>
       </c>
@@ -18599,7 +18605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A591" s="2" t="s">
         <v>1053</v>
       </c>
@@ -18616,7 +18622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A592" s="2" t="s">
         <v>1054</v>
       </c>
@@ -18633,7 +18639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A593" s="2" t="s">
         <v>1055</v>
       </c>
@@ -18650,7 +18656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A594" s="2" t="s">
         <v>1056</v>
       </c>
@@ -18667,7 +18673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A595" s="2" t="s">
         <v>1057</v>
       </c>
@@ -18684,7 +18690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A596" s="2" t="s">
         <v>1058</v>
       </c>
@@ -18701,7 +18707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A597" s="2" t="s">
         <v>1060</v>
       </c>
@@ -18718,7 +18724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A598" s="2" t="s">
         <v>1062</v>
       </c>
@@ -18735,7 +18741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A599" s="2" t="s">
         <v>1064</v>
       </c>
@@ -18752,7 +18758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A600" s="2" t="s">
         <v>1066</v>
       </c>
@@ -18769,7 +18775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A601" s="2" t="s">
         <v>1068</v>
       </c>
@@ -18786,7 +18792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A602" s="2" t="s">
         <v>1070</v>
       </c>
@@ -18803,7 +18809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A603" s="2" t="s">
         <v>1072</v>
       </c>
@@ -18820,7 +18826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A604" s="2" t="s">
         <v>1074</v>
       </c>
@@ -18837,7 +18843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A605" s="2" t="s">
         <v>1076</v>
       </c>
@@ -18854,7 +18860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A606" s="2" t="s">
         <v>1078</v>
       </c>
@@ -18871,7 +18877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A607" s="2" t="s">
         <v>1080</v>
       </c>
@@ -18888,7 +18894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A608" s="2" t="s">
         <v>1082</v>
       </c>
@@ -18905,7 +18911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A609" s="2" t="s">
         <v>1084</v>
       </c>
@@ -18922,7 +18928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A610" s="2" t="s">
         <v>1086</v>
       </c>
@@ -18939,7 +18945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A611" s="2" t="s">
         <v>1088</v>
       </c>
@@ -18956,7 +18962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A612" s="2" t="s">
         <v>1090</v>
       </c>
@@ -18973,7 +18979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A613" s="2" t="s">
         <v>1092</v>
       </c>
@@ -18990,7 +18996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A614" s="2" t="s">
         <v>1094</v>
       </c>
@@ -19007,7 +19013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A615" s="2" t="s">
         <v>1095</v>
       </c>
@@ -19024,7 +19030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A616" s="2" t="s">
         <v>1097</v>
       </c>
@@ -19041,7 +19047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A617" s="2" t="s">
         <v>1099</v>
       </c>
@@ -19058,7 +19064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A618" s="2" t="s">
         <v>1101</v>
       </c>
@@ -19075,7 +19081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A619" s="2" t="s">
         <v>1103</v>
       </c>
@@ -19092,7 +19098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A620" s="2" t="s">
         <v>1105</v>
       </c>
@@ -19109,7 +19115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A621" s="2" t="s">
         <v>1107</v>
       </c>
@@ -19126,7 +19132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A622" s="2" t="s">
         <v>1109</v>
       </c>
@@ -19143,7 +19149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A623" s="2" t="s">
         <v>1111</v>
       </c>
@@ -19160,7 +19166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A624" s="2" t="s">
         <v>1113</v>
       </c>
@@ -19177,7 +19183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A625" s="2" t="s">
         <v>1115</v>
       </c>
@@ -19194,7 +19200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A626" s="2" t="s">
         <v>1116</v>
       </c>
@@ -19234,7 +19240,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A628" s="2" t="s">
         <v>1119</v>
       </c>
@@ -19251,7 +19257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A629" s="2" t="s">
         <v>1121</v>
       </c>
@@ -19268,7 +19274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A630" s="2" t="s">
         <v>1123</v>
       </c>
@@ -19285,7 +19291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A631" s="2" t="s">
         <v>1125</v>
       </c>
@@ -19302,7 +19308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A632" s="2" t="s">
         <v>1127</v>
       </c>
@@ -19319,7 +19325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A633" s="2" t="s">
         <v>1129</v>
       </c>
@@ -19336,7 +19342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A634" s="2" t="s">
         <v>1131</v>
       </c>
@@ -19353,7 +19359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A635" s="2" t="s">
         <v>1133</v>
       </c>
@@ -19370,7 +19376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A636" s="2" t="s">
         <v>1135</v>
       </c>
@@ -19387,7 +19393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A637" s="2" t="s">
         <v>1137</v>
       </c>
@@ -19404,7 +19410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A638" s="2" t="s">
         <v>1139</v>
       </c>
@@ -19421,7 +19427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A639" s="2" t="s">
         <v>1141</v>
       </c>
@@ -19438,7 +19444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A640" s="2" t="s">
         <v>1143</v>
       </c>
@@ -19455,7 +19461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A641" s="2" t="s">
         <v>1145</v>
       </c>
@@ -19472,7 +19478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A642" s="2" t="s">
         <v>1147</v>
       </c>
@@ -19512,7 +19518,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A644" s="2" t="s">
         <v>1150</v>
       </c>
@@ -19529,7 +19535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A645" s="2" t="s">
         <v>1152</v>
       </c>
@@ -19546,7 +19552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A646" s="2" t="s">
         <v>1154</v>
       </c>
@@ -19563,7 +19569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A647" s="2" t="s">
         <v>1156</v>
       </c>
@@ -19580,7 +19586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A648" s="2" t="s">
         <v>1158</v>
       </c>
@@ -19597,7 +19603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A649" s="2" t="s">
         <v>1160</v>
       </c>
@@ -19614,7 +19620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A650" s="2" t="s">
         <v>1162</v>
       </c>
@@ -19631,7 +19637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A651" s="2" t="s">
         <v>1164</v>
       </c>
@@ -19648,7 +19654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A652" s="2" t="s">
         <v>1166</v>
       </c>
@@ -19665,7 +19671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A653" s="2" t="s">
         <v>1168</v>
       </c>
@@ -19682,7 +19688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A654" s="2" t="s">
         <v>1170</v>
       </c>
@@ -19699,7 +19705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A655" s="2" t="s">
         <v>1172</v>
       </c>
@@ -19716,7 +19722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A656" s="2" t="s">
         <v>1174</v>
       </c>
@@ -19733,7 +19739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A657" s="2" t="s">
         <v>1176</v>
       </c>
@@ -19773,7 +19779,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A659" s="2" t="s">
         <v>1179</v>
       </c>
@@ -19790,7 +19796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A660" s="2" t="s">
         <v>1180</v>
       </c>
@@ -19807,7 +19813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A661" s="2" t="s">
         <v>1181</v>
       </c>
@@ -19824,7 +19830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A662" s="2" t="s">
         <v>1182</v>
       </c>
@@ -19841,7 +19847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A663" s="2" t="s">
         <v>1183</v>
       </c>
@@ -19858,7 +19864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A664" s="2" t="s">
         <v>1184</v>
       </c>
@@ -19875,7 +19881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A665" s="2" t="s">
         <v>1185</v>
       </c>
@@ -19892,7 +19898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A666" s="2" t="s">
         <v>1186</v>
       </c>
@@ -19909,7 +19915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A667" s="2" t="s">
         <v>1187</v>
       </c>
@@ -19926,7 +19932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A668" s="2" t="s">
         <v>1188</v>
       </c>
@@ -19943,7 +19949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A669" s="2" t="s">
         <v>1189</v>
       </c>
@@ -19960,7 +19966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A670" s="2" t="s">
         <v>1190</v>
       </c>
@@ -19977,7 +19983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A671" s="2" t="s">
         <v>1191</v>
       </c>
@@ -19994,7 +20000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A672" s="2" t="s">
         <v>1193</v>
       </c>
@@ -20034,7 +20040,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A674" s="2" t="s">
         <v>1196</v>
       </c>
@@ -20051,7 +20057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A675" s="2" t="s">
         <v>1197</v>
       </c>
@@ -20068,7 +20074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A676" s="2" t="s">
         <v>1198</v>
       </c>
@@ -20085,7 +20091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A677" s="2" t="s">
         <v>1199</v>
       </c>
@@ -20102,7 +20108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A678" s="2" t="s">
         <v>1200</v>
       </c>
@@ -20119,7 +20125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A679" s="2" t="s">
         <v>1201</v>
       </c>
@@ -20136,7 +20142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A680" s="2" t="s">
         <v>1202</v>
       </c>
@@ -20153,7 +20159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A681" s="2" t="s">
         <v>1203</v>
       </c>
@@ -20170,7 +20176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A682" s="2" t="s">
         <v>1204</v>
       </c>
@@ -20187,7 +20193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A683" s="2" t="s">
         <v>1205</v>
       </c>
@@ -20204,7 +20210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A684" s="2" t="s">
         <v>1206</v>
       </c>
@@ -20221,7 +20227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A685" s="2" t="s">
         <v>1207</v>
       </c>
@@ -20238,7 +20244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A686" s="2" t="s">
         <v>1208</v>
       </c>
@@ -20255,7 +20261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A687" s="2" t="s">
         <v>1210</v>
       </c>
@@ -20272,7 +20278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A688" s="2" t="s">
         <v>1211</v>
       </c>
@@ -20289,7 +20295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A689" s="2" t="s">
         <v>1213</v>
       </c>
@@ -20306,7 +20312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A690" s="2" t="s">
         <v>1215</v>
       </c>
@@ -20323,7 +20329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A691" s="2" t="s">
         <v>1217</v>
       </c>
@@ -20340,7 +20346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A692" s="2" t="s">
         <v>1219</v>
       </c>
@@ -20357,7 +20363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A693" s="2" t="s">
         <v>1221</v>
       </c>
@@ -20374,7 +20380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A694" s="2" t="s">
         <v>1223</v>
       </c>
@@ -20391,7 +20397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A695" s="2" t="s">
         <v>1225</v>
       </c>
@@ -20408,7 +20414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A696" s="2" t="s">
         <v>1226</v>
       </c>
@@ -20448,7 +20454,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A698" s="2" t="s">
         <v>1229</v>
       </c>
@@ -20465,7 +20471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A699" s="2" t="s">
         <v>1231</v>
       </c>
@@ -20482,7 +20488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A700" s="2" t="s">
         <v>1233</v>
       </c>
@@ -20499,7 +20505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A701" s="2" t="s">
         <v>1235</v>
       </c>
@@ -20516,7 +20522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A702" s="2" t="s">
         <v>1237</v>
       </c>
@@ -20533,7 +20539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A703" s="2" t="s">
         <v>1239</v>
       </c>
@@ -20550,7 +20556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A704" s="2" t="s">
         <v>1241</v>
       </c>
@@ -20567,7 +20573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A705" s="2" t="s">
         <v>1243</v>
       </c>
@@ -20584,7 +20590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A706" s="2" t="s">
         <v>1245</v>
       </c>
@@ -20601,7 +20607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A707" s="2" t="s">
         <v>1247</v>
       </c>
@@ -20618,7 +20624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A708" s="2" t="s">
         <v>1249</v>
       </c>
@@ -20635,7 +20641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A709" s="2" t="s">
         <v>1251</v>
       </c>
@@ -20652,7 +20658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A710" s="2" t="s">
         <v>1253</v>
       </c>
@@ -20669,7 +20675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A711" s="2" t="s">
         <v>1255</v>
       </c>
@@ -20686,7 +20692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A712" s="2" t="s">
         <v>1257</v>
       </c>
@@ -20703,7 +20709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A713" s="2" t="s">
         <v>1259</v>
       </c>
@@ -20720,7 +20726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A714" s="2" t="s">
         <v>1261</v>
       </c>
@@ -20737,7 +20743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A715" s="2" t="s">
         <v>1263</v>
       </c>
@@ -20754,7 +20760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A716" s="2" t="s">
         <v>1265</v>
       </c>
@@ -20771,7 +20777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A717" s="2" t="s">
         <v>1267</v>
       </c>
@@ -20788,7 +20794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A718" s="2" t="s">
         <v>1269</v>
       </c>
@@ -20805,7 +20811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A719" s="2" t="s">
         <v>1271</v>
       </c>
@@ -20822,7 +20828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A720" s="2" t="s">
         <v>1273</v>
       </c>
@@ -20839,7 +20845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A721" s="2" t="s">
         <v>1275</v>
       </c>
@@ -20856,7 +20862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A722" s="2" t="s">
         <v>1277</v>
       </c>
@@ -20873,7 +20879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A723" s="2" t="s">
         <v>1279</v>
       </c>
@@ -20890,7 +20896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A724" s="2" t="s">
         <v>1281</v>
       </c>
@@ -20907,7 +20913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A725" s="2" t="s">
         <v>1283</v>
       </c>
@@ -20924,7 +20930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A726" s="2" t="s">
         <v>1284</v>
       </c>
@@ -20964,7 +20970,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="728" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A728" s="2" t="s">
         <v>1288</v>
       </c>
@@ -20981,7 +20987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A729" s="2" t="s">
         <v>1289</v>
       </c>
@@ -20998,7 +21004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A730" s="2" t="s">
         <v>1290</v>
       </c>
@@ -21015,7 +21021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A731" s="2" t="s">
         <v>1291</v>
       </c>
@@ -21032,7 +21038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A732" s="2" t="s">
         <v>1292</v>
       </c>
@@ -21049,7 +21055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A733" s="2" t="s">
         <v>1293</v>
       </c>
@@ -21066,7 +21072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A734" s="2" t="s">
         <v>1294</v>
       </c>
@@ -21083,7 +21089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A735" s="2" t="s">
         <v>1295</v>
       </c>
@@ -21100,7 +21106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A736" s="2" t="s">
         <v>1296</v>
       </c>
@@ -21117,7 +21123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A737" s="2" t="s">
         <v>1297</v>
       </c>
@@ -21134,7 +21140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A738" s="2" t="s">
         <v>1298</v>
       </c>
@@ -21151,7 +21157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A739" s="2" t="s">
         <v>1299</v>
       </c>
@@ -21168,7 +21174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A740" s="2" t="s">
         <v>1300</v>
       </c>
@@ -21185,7 +21191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A741" s="2" t="s">
         <v>1301</v>
       </c>
@@ -21202,7 +21208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A742" s="2" t="s">
         <v>1302</v>
       </c>
@@ -21219,7 +21225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A743" s="2" t="s">
         <v>1303</v>
       </c>
@@ -21236,7 +21242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A744" s="2" t="s">
         <v>1304</v>
       </c>
@@ -21253,7 +21259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A745" s="2" t="s">
         <v>1305</v>
       </c>
@@ -21270,7 +21276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A746" s="2" t="s">
         <v>1306</v>
       </c>
@@ -21287,7 +21293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A747" s="2" t="s">
         <v>1307</v>
       </c>
@@ -21304,7 +21310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A748" s="2" t="s">
         <v>1308</v>
       </c>
@@ -21321,7 +21327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A749" s="2" t="s">
         <v>1309</v>
       </c>
@@ -21338,7 +21344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A750" s="2" t="s">
         <v>1310</v>
       </c>
@@ -21355,7 +21361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A751" s="2" t="s">
         <v>1311</v>
       </c>
@@ -21372,7 +21378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A752" s="2" t="s">
         <v>1312</v>
       </c>
@@ -21389,7 +21395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A753" s="2" t="s">
         <v>1313</v>
       </c>
@@ -21406,7 +21412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A754" s="2" t="s">
         <v>1314</v>
       </c>
@@ -21423,7 +21429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A755" s="2" t="s">
         <v>1315</v>
       </c>
@@ -21463,7 +21469,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="757" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A757" s="2" t="s">
         <v>1318</v>
       </c>
@@ -21480,7 +21486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A758" s="2" t="s">
         <v>1320</v>
       </c>
@@ -21497,7 +21503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A759" s="2" t="s">
         <v>1322</v>
       </c>
@@ -21514,7 +21520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A760" s="2" t="s">
         <v>1324</v>
       </c>
@@ -21531,7 +21537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A761" s="2" t="s">
         <v>1326</v>
       </c>
@@ -21548,7 +21554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A762" s="2" t="s">
         <v>1328</v>
       </c>
@@ -21565,7 +21571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A763" s="2" t="s">
         <v>1330</v>
       </c>
@@ -21582,7 +21588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A764" s="2" t="s">
         <v>1332</v>
       </c>
@@ -21599,7 +21605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A765" s="2" t="s">
         <v>1334</v>
       </c>
@@ -21616,7 +21622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A766" s="2" t="s">
         <v>1336</v>
       </c>
@@ -21633,7 +21639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A767" s="2" t="s">
         <v>1338</v>
       </c>
@@ -21650,7 +21656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A768" s="2" t="s">
         <v>1340</v>
       </c>
@@ -21667,7 +21673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A769" s="2" t="s">
         <v>1342</v>
       </c>
@@ -21684,7 +21690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A770" s="2" t="s">
         <v>1344</v>
       </c>
@@ -21701,7 +21707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A771" s="2" t="s">
         <v>1346</v>
       </c>
@@ -21718,7 +21724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A772" s="2" t="s">
         <v>1348</v>
       </c>
@@ -21735,7 +21741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A773" s="2" t="s">
         <v>1350</v>
       </c>
@@ -21752,7 +21758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A774" s="2" t="s">
         <v>1351</v>
       </c>
@@ -21769,7 +21775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A775" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21786,7 +21792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A776" s="2" t="s">
         <v>1355</v>
       </c>
@@ -21803,7 +21809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A777" s="2" t="s">
         <v>1357</v>
       </c>
@@ -21820,7 +21826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A778" s="2" t="s">
         <v>1359</v>
       </c>
@@ -21837,7 +21843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A779" s="2" t="s">
         <v>1361</v>
       </c>
@@ -21854,7 +21860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A780" s="2" t="s">
         <v>1363</v>
       </c>
@@ -21871,7 +21877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A781" s="2" t="s">
         <v>1365</v>
       </c>
@@ -21888,7 +21894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A782" s="2" t="s">
         <v>1367</v>
       </c>
@@ -21905,7 +21911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A783" s="2" t="s">
         <v>1369</v>
       </c>
@@ -21922,7 +21928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A784" s="2" t="s">
         <v>1371</v>
       </c>
@@ -21939,7 +21945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A785" s="2" t="s">
         <v>1373</v>
       </c>
@@ -21979,7 +21985,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="787" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A787" s="2" t="s">
         <v>1377</v>
       </c>
@@ -21996,7 +22002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A788" s="2" t="s">
         <v>1379</v>
       </c>
@@ -22013,7 +22019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A789" s="2" t="s">
         <v>1381</v>
       </c>
@@ -22030,7 +22036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A790" s="2" t="s">
         <v>1383</v>
       </c>
@@ -22047,7 +22053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A791" s="2" t="s">
         <v>1385</v>
       </c>
@@ -22064,7 +22070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A792" s="2" t="s">
         <v>1387</v>
       </c>
@@ -22081,7 +22087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A793" s="2" t="s">
         <v>1389</v>
       </c>
@@ -22098,7 +22104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A794" s="2" t="s">
         <v>1391</v>
       </c>
@@ -22115,7 +22121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A795" s="2" t="s">
         <v>1393</v>
       </c>
@@ -22132,7 +22138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A796" s="2">
         <v>1</v>
       </c>
@@ -22149,7 +22155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A797" s="2">
         <v>2</v>
       </c>
@@ -22166,7 +22172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A798" s="2">
         <v>3</v>
       </c>
@@ -22183,7 +22189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A799" s="2">
         <v>4</v>
       </c>
@@ -22200,7 +22206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A800" s="2">
         <v>5</v>
       </c>
@@ -22217,7 +22223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A801" s="2">
         <v>6</v>
       </c>
@@ -22234,7 +22240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A802" s="2">
         <v>7</v>
       </c>
@@ -22251,7 +22257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A803" s="2">
         <v>8</v>
       </c>
@@ -22268,7 +22274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A804" s="2">
         <v>9</v>
       </c>
@@ -22285,7 +22291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A805" s="2">
         <v>10</v>
       </c>
@@ -22302,7 +22308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A806" s="2">
         <v>11</v>
       </c>
@@ -22319,7 +22325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A807" s="2">
         <v>12</v>
       </c>
@@ -22336,7 +22342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A808" s="2">
         <v>13</v>
       </c>
@@ -22353,7 +22359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A809" s="2">
         <v>14</v>
       </c>
@@ -22370,7 +22376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A810" s="2">
         <v>15</v>
       </c>
@@ -22387,7 +22393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A811" s="2">
         <v>16</v>
       </c>
@@ -22404,7 +22410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A812" s="2">
         <v>17</v>
       </c>
@@ -22421,7 +22427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A813" s="2">
         <v>18</v>
       </c>
@@ -22438,7 +22444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A814" s="2">
         <v>19</v>
       </c>
@@ -22455,7 +22461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A815" s="2">
         <v>20</v>
       </c>
@@ -22472,25 +22478,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B816" s="7"/>
-      <c r="C816" s="7"/>
-      <c r="D816" s="7"/>
+    <row r="816" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A816" s="7" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B816" s="7" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C816" s="7" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D816" s="7">
+        <v>1</v>
+      </c>
+      <c r="E816" s="1">
+        <v>1</v>
+      </c>
+      <c r="F816" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="J816" s="1" t="s">
+        <v>2303</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K815">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="定比"/>
-        <filter val="定序"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K816"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1">
     <cfRule type="duplicateValues" dxfId="37" priority="43"/>
